--- a/Tables&Relations.xlsx
+++ b/Tables&Relations.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\ghrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECF7CC-D5C4-4C06-ACCC-B01744A3C7F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309AABFE-FDFD-4421-9CE6-924653D9B372}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" activeTab="1" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" activeTab="2" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23205" windowHeight="10800" xr2:uid="{00762EE8-54C7-43BD-89B1-407E3EC593A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Relations" sheetId="2" r:id="rId1"/>
     <sheet name="Attributes" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="147">
   <si>
     <t>fname</t>
   </si>
@@ -94,45 +96,15 @@
     <t>details</t>
   </si>
   <si>
-    <t>appointment_id</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>doctor_id</t>
-  </si>
-  <si>
-    <t>doctor_specialty_id</t>
-  </si>
-  <si>
-    <t>specialty_id</t>
-  </si>
-  <si>
-    <t>nurse_id</t>
-  </si>
-  <si>
-    <t>appointment_status_id</t>
-  </si>
-  <si>
     <t>appointment_creation_date</t>
   </si>
   <si>
     <t>appointment_status</t>
   </si>
   <si>
-    <t>appointment _history_id</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>doctor_availability_id</t>
-  </si>
-  <si>
-    <t>nurse_availability_id</t>
-  </si>
-  <si>
     <t>Specialty Table</t>
   </si>
   <si>
@@ -142,57 +114,24 @@
     <t>Nurse Specialty Table</t>
   </si>
   <si>
-    <t>nurse_specialty_id</t>
-  </si>
-  <si>
     <t>date_available</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>specialty_name</t>
   </si>
   <si>
-    <t>procedure_id</t>
-  </si>
-  <si>
     <t>procedure_name</t>
   </si>
   <si>
     <t>Medical Procedure Table</t>
   </si>
   <si>
-    <t>Reference Doctor - doctor_id</t>
-  </si>
-  <si>
-    <t>Reference Patient - patient_id</t>
-  </si>
-  <si>
-    <t>Reference Nurse - nurse_id</t>
-  </si>
-  <si>
-    <t>Reference MedicalProcedure - procedure_id</t>
-  </si>
-  <si>
-    <t>Reference AppointmentStatus - appointment_status_id</t>
-  </si>
-  <si>
-    <t>Reference Appointment - appointment_id</t>
-  </si>
-  <si>
     <t>fk1</t>
   </si>
   <si>
-    <t>Reference Specialty -specialty_id</t>
-  </si>
-  <si>
     <t>fk2</t>
   </si>
   <si>
-    <t>Reference Speciality - specialty_id</t>
-  </si>
-  <si>
     <t>Creation Order</t>
   </si>
   <si>
@@ -431,6 +370,105 @@
   </si>
   <si>
     <t>Cardiology</t>
+  </si>
+  <si>
+    <t>User Table</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>psswrd</t>
+  </si>
+  <si>
+    <t>DayOfWeek Table</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>day_of_week</t>
+  </si>
+  <si>
+    <t>doctor_pid</t>
+  </si>
+  <si>
+    <t>nurse_pid</t>
+  </si>
+  <si>
+    <t>specialty_pid</t>
+  </si>
+  <si>
+    <t>patient_pid</t>
+  </si>
+  <si>
+    <t>procedure_pid</t>
+  </si>
+  <si>
+    <t>appointment_status_pid</t>
+  </si>
+  <si>
+    <t>user_pid</t>
+  </si>
+  <si>
+    <t>appointment_pid</t>
+  </si>
+  <si>
+    <t>Reference Patient - patient_pid</t>
+  </si>
+  <si>
+    <t>Reference Doctor - doctor_pid</t>
+  </si>
+  <si>
+    <t>Reference Nurse - nurse_pid</t>
+  </si>
+  <si>
+    <t>Reference MedicalProcedure - procedure_pid</t>
+  </si>
+  <si>
+    <t>Reference AppointmentStatus - appointment_status_pid</t>
+  </si>
+  <si>
+    <t>appointment _history_pid</t>
+  </si>
+  <si>
+    <t>Reference Appointment - appointment_pid</t>
+  </si>
+  <si>
+    <t>doctor_specialty_pid</t>
+  </si>
+  <si>
+    <t>Reference Specialty -specialty_pid</t>
+  </si>
+  <si>
+    <t>doctor_availability_pid</t>
+  </si>
+  <si>
+    <t>nurse_specialty_pid</t>
+  </si>
+  <si>
+    <t>Reference Speciality - specialty_pid</t>
+  </si>
+  <si>
+    <t>nurse_availability_pid</t>
+  </si>
+  <si>
+    <t>start_time_pid</t>
+  </si>
+  <si>
+    <t>day_of_week_pid</t>
+  </si>
+  <si>
+    <t>hour_of_day</t>
+  </si>
+  <si>
+    <t>Reference DayOfWeek - day_of_week_pid</t>
+  </si>
+  <si>
+    <t>Reference StartTime - start_time_pid</t>
+  </si>
+  <si>
+    <t>Appt Status Table</t>
   </si>
 </sst>
 </file>
@@ -468,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -837,11 +875,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,12 +1000,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -883,24 +1028,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,14 +1052,106 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,6 +1169,3345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Freeform: Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE75B804-3E01-4109-A64F-45975DB0FD18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6746875" y="539750"/>
+          <a:ext cx="587375" cy="1762125"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 587375 w 587375"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1762125"/>
+            <a:gd name="connsiteX1" fmla="*/ 508000 w 587375"/>
+            <a:gd name="connsiteY1" fmla="*/ 15875 h 1762125"/>
+            <a:gd name="connsiteX2" fmla="*/ 460375 w 587375"/>
+            <a:gd name="connsiteY2" fmla="*/ 31750 h 1762125"/>
+            <a:gd name="connsiteX3" fmla="*/ 285750 w 587375"/>
+            <a:gd name="connsiteY3" fmla="*/ 63500 h 1762125"/>
+            <a:gd name="connsiteX4" fmla="*/ 238125 w 587375"/>
+            <a:gd name="connsiteY4" fmla="*/ 95250 h 1762125"/>
+            <a:gd name="connsiteX5" fmla="*/ 206375 w 587375"/>
+            <a:gd name="connsiteY5" fmla="*/ 142875 h 1762125"/>
+            <a:gd name="connsiteX6" fmla="*/ 158750 w 587375"/>
+            <a:gd name="connsiteY6" fmla="*/ 190500 h 1762125"/>
+            <a:gd name="connsiteX7" fmla="*/ 127000 w 587375"/>
+            <a:gd name="connsiteY7" fmla="*/ 381000 h 1762125"/>
+            <a:gd name="connsiteX8" fmla="*/ 111125 w 587375"/>
+            <a:gd name="connsiteY8" fmla="*/ 476250 h 1762125"/>
+            <a:gd name="connsiteX9" fmla="*/ 79375 w 587375"/>
+            <a:gd name="connsiteY9" fmla="*/ 571500 h 1762125"/>
+            <a:gd name="connsiteX10" fmla="*/ 63500 w 587375"/>
+            <a:gd name="connsiteY10" fmla="*/ 619125 h 1762125"/>
+            <a:gd name="connsiteX11" fmla="*/ 47625 w 587375"/>
+            <a:gd name="connsiteY11" fmla="*/ 666750 h 1762125"/>
+            <a:gd name="connsiteX12" fmla="*/ 31750 w 587375"/>
+            <a:gd name="connsiteY12" fmla="*/ 730250 h 1762125"/>
+            <a:gd name="connsiteX13" fmla="*/ 15875 w 587375"/>
+            <a:gd name="connsiteY13" fmla="*/ 1174750 h 1762125"/>
+            <a:gd name="connsiteX14" fmla="*/ 0 w 587375"/>
+            <a:gd name="connsiteY14" fmla="*/ 1254125 h 1762125"/>
+            <a:gd name="connsiteX15" fmla="*/ 31750 w 587375"/>
+            <a:gd name="connsiteY15" fmla="*/ 1444625 h 1762125"/>
+            <a:gd name="connsiteX16" fmla="*/ 63500 w 587375"/>
+            <a:gd name="connsiteY16" fmla="*/ 1492250 h 1762125"/>
+            <a:gd name="connsiteX17" fmla="*/ 111125 w 587375"/>
+            <a:gd name="connsiteY17" fmla="*/ 1524000 h 1762125"/>
+            <a:gd name="connsiteX18" fmla="*/ 190500 w 587375"/>
+            <a:gd name="connsiteY18" fmla="*/ 1587500 h 1762125"/>
+            <a:gd name="connsiteX19" fmla="*/ 238125 w 587375"/>
+            <a:gd name="connsiteY19" fmla="*/ 1635125 h 1762125"/>
+            <a:gd name="connsiteX20" fmla="*/ 333375 w 587375"/>
+            <a:gd name="connsiteY20" fmla="*/ 1682750 h 1762125"/>
+            <a:gd name="connsiteX21" fmla="*/ 381000 w 587375"/>
+            <a:gd name="connsiteY21" fmla="*/ 1714500 h 1762125"/>
+            <a:gd name="connsiteX22" fmla="*/ 476250 w 587375"/>
+            <a:gd name="connsiteY22" fmla="*/ 1746250 h 1762125"/>
+            <a:gd name="connsiteX23" fmla="*/ 523875 w 587375"/>
+            <a:gd name="connsiteY23" fmla="*/ 1762125 h 1762125"/>
+            <a:gd name="connsiteX24" fmla="*/ 571500 w 587375"/>
+            <a:gd name="connsiteY24" fmla="*/ 1762125 h 1762125"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="587375" h="1762125">
+              <a:moveTo>
+                <a:pt x="587375" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="560917" y="5292"/>
+                <a:pt x="534177" y="9331"/>
+                <a:pt x="508000" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="491766" y="19934"/>
+                <a:pt x="476784" y="28468"/>
+                <a:pt x="460375" y="31750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="175967" y="88632"/>
+                <a:pt x="473997" y="16438"/>
+                <a:pt x="285750" y="63500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="269875" y="74083"/>
+                <a:pt x="251616" y="81759"/>
+                <a:pt x="238125" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="224634" y="108741"/>
+                <a:pt x="218589" y="128218"/>
+                <a:pt x="206375" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="192002" y="160122"/>
+                <a:pt x="174625" y="174625"/>
+                <a:pt x="158750" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="130804" y="330232"/>
+                <a:pt x="153255" y="210346"/>
+                <a:pt x="127000" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="122106" y="412814"/>
+                <a:pt x="118932" y="445023"/>
+                <a:pt x="111125" y="476250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="103008" y="508718"/>
+                <a:pt x="89958" y="539750"/>
+                <a:pt x="79375" y="571500"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="63500" y="619125"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="58208" y="635000"/>
+                <a:pt x="51684" y="650516"/>
+                <a:pt x="47625" y="666750"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="31750" y="730250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="26458" y="878417"/>
+                <a:pt x="24844" y="1026760"/>
+                <a:pt x="15875" y="1174750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14243" y="1201683"/>
+                <a:pt x="0" y="1227143"/>
+                <a:pt x="0" y="1254125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="1289335"/>
+                <a:pt x="6911" y="1394947"/>
+                <a:pt x="31750" y="1444625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="40283" y="1461690"/>
+                <a:pt x="50009" y="1478759"/>
+                <a:pt x="63500" y="1492250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="76991" y="1505741"/>
+                <a:pt x="95250" y="1513417"/>
+                <a:pt x="111125" y="1524000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="182133" y="1630511"/>
+                <a:pt x="98485" y="1526156"/>
+                <a:pt x="190500" y="1587500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="209180" y="1599953"/>
+                <a:pt x="220878" y="1620752"/>
+                <a:pt x="238125" y="1635125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="306368" y="1691994"/>
+                <a:pt x="261778" y="1646951"/>
+                <a:pt x="333375" y="1682750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="350440" y="1691283"/>
+                <a:pt x="363565" y="1706751"/>
+                <a:pt x="381000" y="1714500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="411583" y="1728092"/>
+                <a:pt x="444500" y="1735667"/>
+                <a:pt x="476250" y="1746250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="492125" y="1751542"/>
+                <a:pt x="507141" y="1762125"/>
+                <a:pt x="523875" y="1762125"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="571500" y="1762125"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Freeform: Shape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05BA9D7-F3F4-49E0-8E68-B91CA8B3484C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="2841625"/>
+          <a:ext cx="2587625" cy="1285875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2587625 w 2587625"/>
+            <a:gd name="connsiteY0" fmla="*/ 1285875 h 1285875"/>
+            <a:gd name="connsiteX1" fmla="*/ 2444750 w 2587625"/>
+            <a:gd name="connsiteY1" fmla="*/ 1254125 h 1285875"/>
+            <a:gd name="connsiteX2" fmla="*/ 2413000 w 2587625"/>
+            <a:gd name="connsiteY2" fmla="*/ 1206500 h 1285875"/>
+            <a:gd name="connsiteX3" fmla="*/ 2317750 w 2587625"/>
+            <a:gd name="connsiteY3" fmla="*/ 1111250 h 1285875"/>
+            <a:gd name="connsiteX4" fmla="*/ 2238375 w 2587625"/>
+            <a:gd name="connsiteY4" fmla="*/ 1031875 h 1285875"/>
+            <a:gd name="connsiteX5" fmla="*/ 2222500 w 2587625"/>
+            <a:gd name="connsiteY5" fmla="*/ 635000 h 1285875"/>
+            <a:gd name="connsiteX6" fmla="*/ 2206625 w 2587625"/>
+            <a:gd name="connsiteY6" fmla="*/ 269875 h 1285875"/>
+            <a:gd name="connsiteX7" fmla="*/ 2174875 w 2587625"/>
+            <a:gd name="connsiteY7" fmla="*/ 174625 h 1285875"/>
+            <a:gd name="connsiteX8" fmla="*/ 2143125 w 2587625"/>
+            <a:gd name="connsiteY8" fmla="*/ 127000 h 1285875"/>
+            <a:gd name="connsiteX9" fmla="*/ 2095500 w 2587625"/>
+            <a:gd name="connsiteY9" fmla="*/ 111125 h 1285875"/>
+            <a:gd name="connsiteX10" fmla="*/ 2063750 w 2587625"/>
+            <a:gd name="connsiteY10" fmla="*/ 63500 h 1285875"/>
+            <a:gd name="connsiteX11" fmla="*/ 2000250 w 2587625"/>
+            <a:gd name="connsiteY11" fmla="*/ 47625 h 1285875"/>
+            <a:gd name="connsiteX12" fmla="*/ 1905000 w 2587625"/>
+            <a:gd name="connsiteY12" fmla="*/ 15875 h 1285875"/>
+            <a:gd name="connsiteX13" fmla="*/ 1857375 w 2587625"/>
+            <a:gd name="connsiteY13" fmla="*/ 0 h 1285875"/>
+            <a:gd name="connsiteX14" fmla="*/ 1206500 w 2587625"/>
+            <a:gd name="connsiteY14" fmla="*/ 15875 h 1285875"/>
+            <a:gd name="connsiteX15" fmla="*/ 1047750 w 2587625"/>
+            <a:gd name="connsiteY15" fmla="*/ 63500 h 1285875"/>
+            <a:gd name="connsiteX16" fmla="*/ 1000125 w 2587625"/>
+            <a:gd name="connsiteY16" fmla="*/ 79375 h 1285875"/>
+            <a:gd name="connsiteX17" fmla="*/ 952500 w 2587625"/>
+            <a:gd name="connsiteY17" fmla="*/ 95250 h 1285875"/>
+            <a:gd name="connsiteX18" fmla="*/ 777875 w 2587625"/>
+            <a:gd name="connsiteY18" fmla="*/ 79375 h 1285875"/>
+            <a:gd name="connsiteX19" fmla="*/ 714375 w 2587625"/>
+            <a:gd name="connsiteY19" fmla="*/ 63500 h 1285875"/>
+            <a:gd name="connsiteX20" fmla="*/ 190500 w 2587625"/>
+            <a:gd name="connsiteY20" fmla="*/ 79375 h 1285875"/>
+            <a:gd name="connsiteX21" fmla="*/ 0 w 2587625"/>
+            <a:gd name="connsiteY21" fmla="*/ 79375 h 1285875"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2587625" h="1285875">
+              <a:moveTo>
+                <a:pt x="2587625" y="1285875"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2586650" y="1285713"/>
+                <a:pt x="2465319" y="1270580"/>
+                <a:pt x="2444750" y="1254125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2429852" y="1242206"/>
+                <a:pt x="2425676" y="1220760"/>
+                <a:pt x="2413000" y="1206500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2383169" y="1172940"/>
+                <a:pt x="2342657" y="1148610"/>
+                <a:pt x="2317750" y="1111250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2275417" y="1047750"/>
+                <a:pt x="2301875" y="1074208"/>
+                <a:pt x="2238375" y="1031875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2174787" y="841111"/>
+                <a:pt x="2204866" y="970046"/>
+                <a:pt x="2222500" y="635000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2217208" y="513292"/>
+                <a:pt x="2219161" y="391052"/>
+                <a:pt x="2206625" y="269875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2203181" y="236585"/>
+                <a:pt x="2193439" y="202472"/>
+                <a:pt x="2174875" y="174625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2164292" y="158750"/>
+                <a:pt x="2158023" y="138919"/>
+                <a:pt x="2143125" y="127000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2130058" y="116547"/>
+                <a:pt x="2111375" y="116417"/>
+                <a:pt x="2095500" y="111125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2084917" y="95250"/>
+                <a:pt x="2079625" y="74083"/>
+                <a:pt x="2063750" y="63500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2045596" y="51397"/>
+                <a:pt x="2021148" y="53894"/>
+                <a:pt x="2000250" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1968194" y="38008"/>
+                <a:pt x="1936750" y="26458"/>
+                <a:pt x="1905000" y="15875"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1857375" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1640417" y="5292"/>
+                <a:pt x="1423309" y="6239"/>
+                <a:pt x="1206500" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1178817" y="17105"/>
+                <a:pt x="1058954" y="59765"/>
+                <a:pt x="1047750" y="63500"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1000125" y="79375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="952500" y="95250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="894292" y="89958"/>
+                <a:pt x="835811" y="87100"/>
+                <a:pt x="777875" y="79375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="756248" y="76491"/>
+                <a:pt x="736193" y="63500"/>
+                <a:pt x="714375" y="63500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="539670" y="63500"/>
+                <a:pt x="365162" y="75494"/>
+                <a:pt x="190500" y="79375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="127016" y="80786"/>
+                <a:pt x="63500" y="79375"/>
+                <a:pt x="0" y="79375"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Freeform: Shape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5146B5-DA14-46E9-BD8D-B00D5436DE82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158750" y="507981"/>
+          <a:ext cx="539750" cy="1778019"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 539750 w 539750"/>
+            <a:gd name="connsiteY0" fmla="*/ 15894 h 1778019"/>
+            <a:gd name="connsiteX1" fmla="*/ 301625 w 539750"/>
+            <a:gd name="connsiteY1" fmla="*/ 15894 h 1778019"/>
+            <a:gd name="connsiteX2" fmla="*/ 206375 w 539750"/>
+            <a:gd name="connsiteY2" fmla="*/ 63519 h 1778019"/>
+            <a:gd name="connsiteX3" fmla="*/ 158750 w 539750"/>
+            <a:gd name="connsiteY3" fmla="*/ 79394 h 1778019"/>
+            <a:gd name="connsiteX4" fmla="*/ 111125 w 539750"/>
+            <a:gd name="connsiteY4" fmla="*/ 174644 h 1778019"/>
+            <a:gd name="connsiteX5" fmla="*/ 79375 w 539750"/>
+            <a:gd name="connsiteY5" fmla="*/ 301644 h 1778019"/>
+            <a:gd name="connsiteX6" fmla="*/ 47625 w 539750"/>
+            <a:gd name="connsiteY6" fmla="*/ 587394 h 1778019"/>
+            <a:gd name="connsiteX7" fmla="*/ 15875 w 539750"/>
+            <a:gd name="connsiteY7" fmla="*/ 714394 h 1778019"/>
+            <a:gd name="connsiteX8" fmla="*/ 0 w 539750"/>
+            <a:gd name="connsiteY8" fmla="*/ 857269 h 1778019"/>
+            <a:gd name="connsiteX9" fmla="*/ 15875 w 539750"/>
+            <a:gd name="connsiteY9" fmla="*/ 1397019 h 1778019"/>
+            <a:gd name="connsiteX10" fmla="*/ 47625 w 539750"/>
+            <a:gd name="connsiteY10" fmla="*/ 1492269 h 1778019"/>
+            <a:gd name="connsiteX11" fmla="*/ 63500 w 539750"/>
+            <a:gd name="connsiteY11" fmla="*/ 1539894 h 1778019"/>
+            <a:gd name="connsiteX12" fmla="*/ 111125 w 539750"/>
+            <a:gd name="connsiteY12" fmla="*/ 1587519 h 1778019"/>
+            <a:gd name="connsiteX13" fmla="*/ 142875 w 539750"/>
+            <a:gd name="connsiteY13" fmla="*/ 1635144 h 1778019"/>
+            <a:gd name="connsiteX14" fmla="*/ 190500 w 539750"/>
+            <a:gd name="connsiteY14" fmla="*/ 1651019 h 1778019"/>
+            <a:gd name="connsiteX15" fmla="*/ 238125 w 539750"/>
+            <a:gd name="connsiteY15" fmla="*/ 1682769 h 1778019"/>
+            <a:gd name="connsiteX16" fmla="*/ 285750 w 539750"/>
+            <a:gd name="connsiteY16" fmla="*/ 1698644 h 1778019"/>
+            <a:gd name="connsiteX17" fmla="*/ 333375 w 539750"/>
+            <a:gd name="connsiteY17" fmla="*/ 1730394 h 1778019"/>
+            <a:gd name="connsiteX18" fmla="*/ 444500 w 539750"/>
+            <a:gd name="connsiteY18" fmla="*/ 1762144 h 1778019"/>
+            <a:gd name="connsiteX19" fmla="*/ 460375 w 539750"/>
+            <a:gd name="connsiteY19" fmla="*/ 1778019 h 1778019"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="539750" h="1778019">
+              <a:moveTo>
+                <a:pt x="539750" y="15894"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="406365" y="-779"/>
+                <a:pt x="428020" y="-9385"/>
+                <a:pt x="301625" y="15894"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="235121" y="29195"/>
+                <a:pt x="268811" y="32301"/>
+                <a:pt x="206375" y="63519"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="191408" y="71003"/>
+                <a:pt x="174625" y="74102"/>
+                <a:pt x="158750" y="79394"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="118848" y="199101"/>
+                <a:pt x="172673" y="51547"/>
+                <a:pt x="111125" y="174644"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="94853" y="207187"/>
+                <a:pt x="85413" y="271454"/>
+                <a:pt x="79375" y="301644"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72682" y="375266"/>
+                <a:pt x="63719" y="506925"/>
+                <a:pt x="47625" y="587394"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10690" y="772067"/>
+                <a:pt x="55231" y="438902"/>
+                <a:pt x="15875" y="714394"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9098" y="761830"/>
+                <a:pt x="5292" y="809644"/>
+                <a:pt x="0" y="857269"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5292" y="1037186"/>
+                <a:pt x="2413" y="1217529"/>
+                <a:pt x="15875" y="1397019"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18378" y="1430393"/>
+                <a:pt x="37042" y="1460519"/>
+                <a:pt x="47625" y="1492269"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="52917" y="1508144"/>
+                <a:pt x="51667" y="1528061"/>
+                <a:pt x="63500" y="1539894"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="79375" y="1555769"/>
+                <a:pt x="96752" y="1570272"/>
+                <a:pt x="111125" y="1587519"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="123339" y="1602176"/>
+                <a:pt x="127977" y="1623225"/>
+                <a:pt x="142875" y="1635144"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="155942" y="1645597"/>
+                <a:pt x="175533" y="1643535"/>
+                <a:pt x="190500" y="1651019"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="207565" y="1659552"/>
+                <a:pt x="221060" y="1674236"/>
+                <a:pt x="238125" y="1682769"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="253092" y="1690253"/>
+                <a:pt x="270783" y="1691160"/>
+                <a:pt x="285750" y="1698644"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="302815" y="1707177"/>
+                <a:pt x="315838" y="1722878"/>
+                <a:pt x="333375" y="1730394"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="404584" y="1760912"/>
+                <a:pt x="382715" y="1731251"/>
+                <a:pt x="444500" y="1762144"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="451193" y="1765491"/>
+                <a:pt x="455083" y="1772727"/>
+                <a:pt x="460375" y="1778019"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219541</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666769</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>191947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Freeform: Shape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD062D1-08C6-48C0-8C97-87CD5997D606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219541" y="2047875"/>
+          <a:ext cx="7082978" cy="1922322"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 478959 w 7082978"/>
+            <a:gd name="connsiteY0" fmla="*/ 47625 h 1922322"/>
+            <a:gd name="connsiteX1" fmla="*/ 399584 w 7082978"/>
+            <a:gd name="connsiteY1" fmla="*/ 31750 h 1922322"/>
+            <a:gd name="connsiteX2" fmla="*/ 351959 w 7082978"/>
+            <a:gd name="connsiteY2" fmla="*/ 15875 h 1922322"/>
+            <a:gd name="connsiteX3" fmla="*/ 288459 w 7082978"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1922322"/>
+            <a:gd name="connsiteX4" fmla="*/ 50334 w 7082978"/>
+            <a:gd name="connsiteY4" fmla="*/ 15875 h 1922322"/>
+            <a:gd name="connsiteX5" fmla="*/ 2709 w 7082978"/>
+            <a:gd name="connsiteY5" fmla="*/ 47625 h 1922322"/>
+            <a:gd name="connsiteX6" fmla="*/ 18584 w 7082978"/>
+            <a:gd name="connsiteY6" fmla="*/ 158750 h 1922322"/>
+            <a:gd name="connsiteX7" fmla="*/ 18584 w 7082978"/>
+            <a:gd name="connsiteY7" fmla="*/ 1063625 h 1922322"/>
+            <a:gd name="connsiteX8" fmla="*/ 34459 w 7082978"/>
+            <a:gd name="connsiteY8" fmla="*/ 1111250 h 1922322"/>
+            <a:gd name="connsiteX9" fmla="*/ 50334 w 7082978"/>
+            <a:gd name="connsiteY9" fmla="*/ 1174750 h 1922322"/>
+            <a:gd name="connsiteX10" fmla="*/ 82084 w 7082978"/>
+            <a:gd name="connsiteY10" fmla="*/ 1381125 h 1922322"/>
+            <a:gd name="connsiteX11" fmla="*/ 113834 w 7082978"/>
+            <a:gd name="connsiteY11" fmla="*/ 1428750 h 1922322"/>
+            <a:gd name="connsiteX12" fmla="*/ 161459 w 7082978"/>
+            <a:gd name="connsiteY12" fmla="*/ 1460500 h 1922322"/>
+            <a:gd name="connsiteX13" fmla="*/ 193209 w 7082978"/>
+            <a:gd name="connsiteY13" fmla="*/ 1508125 h 1922322"/>
+            <a:gd name="connsiteX14" fmla="*/ 288459 w 7082978"/>
+            <a:gd name="connsiteY14" fmla="*/ 1571625 h 1922322"/>
+            <a:gd name="connsiteX15" fmla="*/ 336084 w 7082978"/>
+            <a:gd name="connsiteY15" fmla="*/ 1603375 h 1922322"/>
+            <a:gd name="connsiteX16" fmla="*/ 494834 w 7082978"/>
+            <a:gd name="connsiteY16" fmla="*/ 1651000 h 1922322"/>
+            <a:gd name="connsiteX17" fmla="*/ 542459 w 7082978"/>
+            <a:gd name="connsiteY17" fmla="*/ 1666875 h 1922322"/>
+            <a:gd name="connsiteX18" fmla="*/ 685334 w 7082978"/>
+            <a:gd name="connsiteY18" fmla="*/ 1698625 h 1922322"/>
+            <a:gd name="connsiteX19" fmla="*/ 923459 w 7082978"/>
+            <a:gd name="connsiteY19" fmla="*/ 1714500 h 1922322"/>
+            <a:gd name="connsiteX20" fmla="*/ 1082209 w 7082978"/>
+            <a:gd name="connsiteY20" fmla="*/ 1746250 h 1922322"/>
+            <a:gd name="connsiteX21" fmla="*/ 1145709 w 7082978"/>
+            <a:gd name="connsiteY21" fmla="*/ 1762125 h 1922322"/>
+            <a:gd name="connsiteX22" fmla="*/ 1240959 w 7082978"/>
+            <a:gd name="connsiteY22" fmla="*/ 1793875 h 1922322"/>
+            <a:gd name="connsiteX23" fmla="*/ 1352084 w 7082978"/>
+            <a:gd name="connsiteY23" fmla="*/ 1809750 h 1922322"/>
+            <a:gd name="connsiteX24" fmla="*/ 1542584 w 7082978"/>
+            <a:gd name="connsiteY24" fmla="*/ 1857375 h 1922322"/>
+            <a:gd name="connsiteX25" fmla="*/ 1606084 w 7082978"/>
+            <a:gd name="connsiteY25" fmla="*/ 1873250 h 1922322"/>
+            <a:gd name="connsiteX26" fmla="*/ 3193584 w 7082978"/>
+            <a:gd name="connsiteY26" fmla="*/ 1841500 h 1922322"/>
+            <a:gd name="connsiteX27" fmla="*/ 3241209 w 7082978"/>
+            <a:gd name="connsiteY27" fmla="*/ 1825625 h 1922322"/>
+            <a:gd name="connsiteX28" fmla="*/ 3526959 w 7082978"/>
+            <a:gd name="connsiteY28" fmla="*/ 1793875 h 1922322"/>
+            <a:gd name="connsiteX29" fmla="*/ 3653959 w 7082978"/>
+            <a:gd name="connsiteY29" fmla="*/ 1778000 h 1922322"/>
+            <a:gd name="connsiteX30" fmla="*/ 4336584 w 7082978"/>
+            <a:gd name="connsiteY30" fmla="*/ 1746250 h 1922322"/>
+            <a:gd name="connsiteX31" fmla="*/ 4654084 w 7082978"/>
+            <a:gd name="connsiteY31" fmla="*/ 1714500 h 1922322"/>
+            <a:gd name="connsiteX32" fmla="*/ 4765209 w 7082978"/>
+            <a:gd name="connsiteY32" fmla="*/ 1682750 h 1922322"/>
+            <a:gd name="connsiteX33" fmla="*/ 4860459 w 7082978"/>
+            <a:gd name="connsiteY33" fmla="*/ 1651000 h 1922322"/>
+            <a:gd name="connsiteX34" fmla="*/ 4908084 w 7082978"/>
+            <a:gd name="connsiteY34" fmla="*/ 1635125 h 1922322"/>
+            <a:gd name="connsiteX35" fmla="*/ 4971584 w 7082978"/>
+            <a:gd name="connsiteY35" fmla="*/ 1619250 h 1922322"/>
+            <a:gd name="connsiteX36" fmla="*/ 5019209 w 7082978"/>
+            <a:gd name="connsiteY36" fmla="*/ 1603375 h 1922322"/>
+            <a:gd name="connsiteX37" fmla="*/ 5193834 w 7082978"/>
+            <a:gd name="connsiteY37" fmla="*/ 1571625 h 1922322"/>
+            <a:gd name="connsiteX38" fmla="*/ 5749459 w 7082978"/>
+            <a:gd name="connsiteY38" fmla="*/ 1524000 h 1922322"/>
+            <a:gd name="connsiteX39" fmla="*/ 5844709 w 7082978"/>
+            <a:gd name="connsiteY39" fmla="*/ 1508125 h 1922322"/>
+            <a:gd name="connsiteX40" fmla="*/ 5939959 w 7082978"/>
+            <a:gd name="connsiteY40" fmla="*/ 1476375 h 1922322"/>
+            <a:gd name="connsiteX41" fmla="*/ 5987584 w 7082978"/>
+            <a:gd name="connsiteY41" fmla="*/ 1460500 h 1922322"/>
+            <a:gd name="connsiteX42" fmla="*/ 6035209 w 7082978"/>
+            <a:gd name="connsiteY42" fmla="*/ 1444625 h 1922322"/>
+            <a:gd name="connsiteX43" fmla="*/ 6162209 w 7082978"/>
+            <a:gd name="connsiteY43" fmla="*/ 1412875 h 1922322"/>
+            <a:gd name="connsiteX44" fmla="*/ 6352709 w 7082978"/>
+            <a:gd name="connsiteY44" fmla="*/ 1349375 h 1922322"/>
+            <a:gd name="connsiteX45" fmla="*/ 6495584 w 7082978"/>
+            <a:gd name="connsiteY45" fmla="*/ 1270000 h 1922322"/>
+            <a:gd name="connsiteX46" fmla="*/ 6543209 w 7082978"/>
+            <a:gd name="connsiteY46" fmla="*/ 1238250 h 1922322"/>
+            <a:gd name="connsiteX47" fmla="*/ 6559084 w 7082978"/>
+            <a:gd name="connsiteY47" fmla="*/ 1190625 h 1922322"/>
+            <a:gd name="connsiteX48" fmla="*/ 6622584 w 7082978"/>
+            <a:gd name="connsiteY48" fmla="*/ 1095375 h 1922322"/>
+            <a:gd name="connsiteX49" fmla="*/ 6670209 w 7082978"/>
+            <a:gd name="connsiteY49" fmla="*/ 904875 h 1922322"/>
+            <a:gd name="connsiteX50" fmla="*/ 6686084 w 7082978"/>
+            <a:gd name="connsiteY50" fmla="*/ 555625 h 1922322"/>
+            <a:gd name="connsiteX51" fmla="*/ 6701959 w 7082978"/>
+            <a:gd name="connsiteY51" fmla="*/ 508000 h 1922322"/>
+            <a:gd name="connsiteX52" fmla="*/ 6749584 w 7082978"/>
+            <a:gd name="connsiteY52" fmla="*/ 492125 h 1922322"/>
+            <a:gd name="connsiteX53" fmla="*/ 6844834 w 7082978"/>
+            <a:gd name="connsiteY53" fmla="*/ 508000 h 1922322"/>
+            <a:gd name="connsiteX54" fmla="*/ 6924209 w 7082978"/>
+            <a:gd name="connsiteY54" fmla="*/ 523875 h 1922322"/>
+            <a:gd name="connsiteX55" fmla="*/ 7082959 w 7082978"/>
+            <a:gd name="connsiteY55" fmla="*/ 492125 h 1922322"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="7082978" h="1922322">
+              <a:moveTo>
+                <a:pt x="478959" y="47625"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="452501" y="42333"/>
+                <a:pt x="425761" y="38294"/>
+                <a:pt x="399584" y="31750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="383350" y="27691"/>
+                <a:pt x="368049" y="20472"/>
+                <a:pt x="351959" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="330980" y="9881"/>
+                <a:pt x="309626" y="5292"/>
+                <a:pt x="288459" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="209084" y="5292"/>
+                <a:pt x="128803" y="2797"/>
+                <a:pt x="50334" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31514" y="19012"/>
+                <a:pt x="6848" y="29000"/>
+                <a:pt x="2709" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-5408" y="84152"/>
+                <a:pt x="13292" y="121708"/>
+                <a:pt x="18584" y="158750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12717" y="422759"/>
+                <a:pt x="-20127" y="773291"/>
+                <a:pt x="18584" y="1063625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20796" y="1080212"/>
+                <a:pt x="29862" y="1095160"/>
+                <a:pt x="34459" y="1111250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="40453" y="1132229"/>
+                <a:pt x="45042" y="1153583"/>
+                <a:pt x="50334" y="1174750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="54887" y="1220279"/>
+                <a:pt x="53478" y="1323914"/>
+                <a:pt x="82084" y="1381125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="90617" y="1398190"/>
+                <a:pt x="100343" y="1415259"/>
+                <a:pt x="113834" y="1428750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="127325" y="1442241"/>
+                <a:pt x="145584" y="1449917"/>
+                <a:pt x="161459" y="1460500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="172042" y="1476375"/>
+                <a:pt x="178850" y="1495561"/>
+                <a:pt x="193209" y="1508125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="221926" y="1533253"/>
+                <a:pt x="256709" y="1550458"/>
+                <a:pt x="288459" y="1571625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="304334" y="1582208"/>
+                <a:pt x="317984" y="1597342"/>
+                <a:pt x="336084" y="1603375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="562439" y="1678827"/>
+                <a:pt x="326890" y="1603016"/>
+                <a:pt x="494834" y="1651000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="510924" y="1655597"/>
+                <a:pt x="526369" y="1662278"/>
+                <a:pt x="542459" y="1666875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="571015" y="1675034"/>
+                <a:pt x="660152" y="1696107"/>
+                <a:pt x="685334" y="1698625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="764490" y="1706541"/>
+                <a:pt x="844084" y="1709208"/>
+                <a:pt x="923459" y="1714500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1021266" y="1747102"/>
+                <a:pt x="921684" y="1717064"/>
+                <a:pt x="1082209" y="1746250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1103675" y="1750153"/>
+                <a:pt x="1124811" y="1755856"/>
+                <a:pt x="1145709" y="1762125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1177765" y="1771742"/>
+                <a:pt x="1207828" y="1789142"/>
+                <a:pt x="1240959" y="1793875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1278001" y="1799167"/>
+                <a:pt x="1315393" y="1802412"/>
+                <a:pt x="1352084" y="1809750"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1542584" y="1857375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1606084" y="1873250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2135251" y="1862667"/>
+                <a:pt x="2691472" y="2008871"/>
+                <a:pt x="3193584" y="1841500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3209459" y="1836208"/>
+                <a:pt x="3224745" y="1828618"/>
+                <a:pt x="3241209" y="1825625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3301885" y="1814593"/>
+                <a:pt x="3474212" y="1799736"/>
+                <a:pt x="3526959" y="1793875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3569361" y="1789164"/>
+                <a:pt x="3611366" y="1780434"/>
+                <a:pt x="3653959" y="1778000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4029660" y="1756531"/>
+                <a:pt x="4021591" y="1772499"/>
+                <a:pt x="4336584" y="1746250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4442578" y="1737417"/>
+                <a:pt x="4654084" y="1714500"/>
+                <a:pt x="4654084" y="1714500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4814137" y="1661149"/>
+                <a:pt x="4565874" y="1742551"/>
+                <a:pt x="4765209" y="1682750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4797265" y="1673133"/>
+                <a:pt x="4828709" y="1661583"/>
+                <a:pt x="4860459" y="1651000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4876334" y="1645708"/>
+                <a:pt x="4891850" y="1639184"/>
+                <a:pt x="4908084" y="1635125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4929251" y="1629833"/>
+                <a:pt x="4950605" y="1625244"/>
+                <a:pt x="4971584" y="1619250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4987674" y="1614653"/>
+                <a:pt x="5002975" y="1607434"/>
+                <a:pt x="5019209" y="1603375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5047156" y="1596388"/>
+                <a:pt x="5170971" y="1573802"/>
+                <a:pt x="5193834" y="1571625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5398890" y="1552096"/>
+                <a:pt x="5538908" y="1559092"/>
+                <a:pt x="5749459" y="1524000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5781209" y="1518708"/>
+                <a:pt x="5813482" y="1515932"/>
+                <a:pt x="5844709" y="1508125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5877177" y="1500008"/>
+                <a:pt x="5908209" y="1486958"/>
+                <a:pt x="5939959" y="1476375"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5987584" y="1460500"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6003459" y="1455208"/>
+                <a:pt x="6018975" y="1448684"/>
+                <a:pt x="6035209" y="1444625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6077542" y="1434042"/>
+                <a:pt x="6120812" y="1426674"/>
+                <a:pt x="6162209" y="1412875"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6352709" y="1349375"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6436535" y="1321433"/>
+                <a:pt x="6386411" y="1342782"/>
+                <a:pt x="6495584" y="1270000"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6543209" y="1238250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6548501" y="1222375"/>
+                <a:pt x="6550957" y="1205253"/>
+                <a:pt x="6559084" y="1190625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6577616" y="1157268"/>
+                <a:pt x="6610517" y="1131576"/>
+                <a:pt x="6622584" y="1095375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6664513" y="969589"/>
+                <a:pt x="6648832" y="1033137"/>
+                <a:pt x="6670209" y="904875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6675501" y="788458"/>
+                <a:pt x="6676791" y="671791"/>
+                <a:pt x="6686084" y="555625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6687418" y="538945"/>
+                <a:pt x="6690126" y="519833"/>
+                <a:pt x="6701959" y="508000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6713792" y="496167"/>
+                <a:pt x="6733709" y="497417"/>
+                <a:pt x="6749584" y="492125"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="6844834" y="508000"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6871381" y="512827"/>
+                <a:pt x="6897227" y="523875"/>
+                <a:pt x="6924209" y="523875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7088224" y="523875"/>
+                <a:pt x="7082959" y="559549"/>
+                <a:pt x="7082959" y="492125"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281821</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Freeform: Shape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8CFBE1-4AE4-4FC5-A146-418D62217DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3647321" y="539750"/>
+          <a:ext cx="416679" cy="1793875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 416679 w 416679"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1793875"/>
+            <a:gd name="connsiteX1" fmla="*/ 146804 w 416679"/>
+            <a:gd name="connsiteY1" fmla="*/ 15875 h 1793875"/>
+            <a:gd name="connsiteX2" fmla="*/ 51554 w 416679"/>
+            <a:gd name="connsiteY2" fmla="*/ 79375 h 1793875"/>
+            <a:gd name="connsiteX3" fmla="*/ 19804 w 416679"/>
+            <a:gd name="connsiteY3" fmla="*/ 127000 h 1793875"/>
+            <a:gd name="connsiteX4" fmla="*/ 19804 w 416679"/>
+            <a:gd name="connsiteY4" fmla="*/ 365125 h 1793875"/>
+            <a:gd name="connsiteX5" fmla="*/ 51554 w 416679"/>
+            <a:gd name="connsiteY5" fmla="*/ 460375 h 1793875"/>
+            <a:gd name="connsiteX6" fmla="*/ 67429 w 416679"/>
+            <a:gd name="connsiteY6" fmla="*/ 603250 h 1793875"/>
+            <a:gd name="connsiteX7" fmla="*/ 83304 w 416679"/>
+            <a:gd name="connsiteY7" fmla="*/ 762000 h 1793875"/>
+            <a:gd name="connsiteX8" fmla="*/ 115054 w 416679"/>
+            <a:gd name="connsiteY8" fmla="*/ 857250 h 1793875"/>
+            <a:gd name="connsiteX9" fmla="*/ 99179 w 416679"/>
+            <a:gd name="connsiteY9" fmla="*/ 1238250 h 1793875"/>
+            <a:gd name="connsiteX10" fmla="*/ 83304 w 416679"/>
+            <a:gd name="connsiteY10" fmla="*/ 1285875 h 1793875"/>
+            <a:gd name="connsiteX11" fmla="*/ 67429 w 416679"/>
+            <a:gd name="connsiteY11" fmla="*/ 1397000 h 1793875"/>
+            <a:gd name="connsiteX12" fmla="*/ 83304 w 416679"/>
+            <a:gd name="connsiteY12" fmla="*/ 1698625 h 1793875"/>
+            <a:gd name="connsiteX13" fmla="*/ 130929 w 416679"/>
+            <a:gd name="connsiteY13" fmla="*/ 1730375 h 1793875"/>
+            <a:gd name="connsiteX14" fmla="*/ 226179 w 416679"/>
+            <a:gd name="connsiteY14" fmla="*/ 1762125 h 1793875"/>
+            <a:gd name="connsiteX15" fmla="*/ 273804 w 416679"/>
+            <a:gd name="connsiteY15" fmla="*/ 1778000 h 1793875"/>
+            <a:gd name="connsiteX16" fmla="*/ 321429 w 416679"/>
+            <a:gd name="connsiteY16" fmla="*/ 1793875 h 1793875"/>
+            <a:gd name="connsiteX17" fmla="*/ 400804 w 416679"/>
+            <a:gd name="connsiteY17" fmla="*/ 1793875 h 1793875"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="416679" h="1793875">
+              <a:moveTo>
+                <a:pt x="416679" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="326721" y="5292"/>
+                <a:pt x="234861" y="-3268"/>
+                <a:pt x="146804" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="109516" y="23981"/>
+                <a:pt x="51554" y="79375"/>
+                <a:pt x="51554" y="79375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="40971" y="95250"/>
+                <a:pt x="28337" y="109935"/>
+                <a:pt x="19804" y="127000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-17324" y="201256"/>
+                <a:pt x="6738" y="286731"/>
+                <a:pt x="19804" y="365125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25306" y="398137"/>
+                <a:pt x="51554" y="460375"/>
+                <a:pt x="51554" y="460375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="56846" y="508000"/>
+                <a:pt x="62413" y="555595"/>
+                <a:pt x="67429" y="603250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72996" y="656138"/>
+                <a:pt x="73503" y="709730"/>
+                <a:pt x="83304" y="762000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="89472" y="794894"/>
+                <a:pt x="115054" y="857250"/>
+                <a:pt x="115054" y="857250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="109762" y="984250"/>
+                <a:pt x="108569" y="1111487"/>
+                <a:pt x="99179" y="1238250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="97943" y="1254938"/>
+                <a:pt x="86586" y="1269466"/>
+                <a:pt x="83304" y="1285875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="75966" y="1322566"/>
+                <a:pt x="72721" y="1359958"/>
+                <a:pt x="67429" y="1397000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72721" y="1497542"/>
+                <a:pt x="64465" y="1599722"/>
+                <a:pt x="83304" y="1698625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="86874" y="1717367"/>
+                <a:pt x="113494" y="1722626"/>
+                <a:pt x="130929" y="1730375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="161512" y="1743967"/>
+                <a:pt x="194429" y="1751542"/>
+                <a:pt x="226179" y="1762125"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="273804" y="1778000"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="289679" y="1783292"/>
+                <a:pt x="304695" y="1793875"/>
+                <a:pt x="321429" y="1793875"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="400804" y="1793875"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437915</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Freeform: Shape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E1839F-7652-441F-8941-FE840FF2B017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3803415" y="2095500"/>
+          <a:ext cx="3499085" cy="2174875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 260585 w 3499085"/>
+            <a:gd name="connsiteY0" fmla="*/ 31750 h 2174875"/>
+            <a:gd name="connsiteX1" fmla="*/ 181210 w 3499085"/>
+            <a:gd name="connsiteY1" fmla="*/ 15875 h 2174875"/>
+            <a:gd name="connsiteX2" fmla="*/ 133585 w 3499085"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2174875"/>
+            <a:gd name="connsiteX3" fmla="*/ 85960 w 3499085"/>
+            <a:gd name="connsiteY3" fmla="*/ 15875 h 2174875"/>
+            <a:gd name="connsiteX4" fmla="*/ 70085 w 3499085"/>
+            <a:gd name="connsiteY4" fmla="*/ 809625 h 2174875"/>
+            <a:gd name="connsiteX5" fmla="*/ 85960 w 3499085"/>
+            <a:gd name="connsiteY5" fmla="*/ 1016000 h 2174875"/>
+            <a:gd name="connsiteX6" fmla="*/ 101835 w 3499085"/>
+            <a:gd name="connsiteY6" fmla="*/ 1063625 h 2174875"/>
+            <a:gd name="connsiteX7" fmla="*/ 117710 w 3499085"/>
+            <a:gd name="connsiteY7" fmla="*/ 1127125 h 2174875"/>
+            <a:gd name="connsiteX8" fmla="*/ 133585 w 3499085"/>
+            <a:gd name="connsiteY8" fmla="*/ 1254125 h 2174875"/>
+            <a:gd name="connsiteX9" fmla="*/ 149460 w 3499085"/>
+            <a:gd name="connsiteY9" fmla="*/ 1682750 h 2174875"/>
+            <a:gd name="connsiteX10" fmla="*/ 181210 w 3499085"/>
+            <a:gd name="connsiteY10" fmla="*/ 1778000 h 2174875"/>
+            <a:gd name="connsiteX11" fmla="*/ 228835 w 3499085"/>
+            <a:gd name="connsiteY11" fmla="*/ 1793875 h 2174875"/>
+            <a:gd name="connsiteX12" fmla="*/ 292335 w 3499085"/>
+            <a:gd name="connsiteY12" fmla="*/ 1841500 h 2174875"/>
+            <a:gd name="connsiteX13" fmla="*/ 339960 w 3499085"/>
+            <a:gd name="connsiteY13" fmla="*/ 1889125 h 2174875"/>
+            <a:gd name="connsiteX14" fmla="*/ 451085 w 3499085"/>
+            <a:gd name="connsiteY14" fmla="*/ 1936750 h 2174875"/>
+            <a:gd name="connsiteX15" fmla="*/ 514585 w 3499085"/>
+            <a:gd name="connsiteY15" fmla="*/ 1968500 h 2174875"/>
+            <a:gd name="connsiteX16" fmla="*/ 562210 w 3499085"/>
+            <a:gd name="connsiteY16" fmla="*/ 1984375 h 2174875"/>
+            <a:gd name="connsiteX17" fmla="*/ 625710 w 3499085"/>
+            <a:gd name="connsiteY17" fmla="*/ 2016125 h 2174875"/>
+            <a:gd name="connsiteX18" fmla="*/ 879710 w 3499085"/>
+            <a:gd name="connsiteY18" fmla="*/ 2032000 h 2174875"/>
+            <a:gd name="connsiteX19" fmla="*/ 943210 w 3499085"/>
+            <a:gd name="connsiteY19" fmla="*/ 2047875 h 2174875"/>
+            <a:gd name="connsiteX20" fmla="*/ 990835 w 3499085"/>
+            <a:gd name="connsiteY20" fmla="*/ 2063750 h 2174875"/>
+            <a:gd name="connsiteX21" fmla="*/ 1165460 w 3499085"/>
+            <a:gd name="connsiteY21" fmla="*/ 2079625 h 2174875"/>
+            <a:gd name="connsiteX22" fmla="*/ 1260710 w 3499085"/>
+            <a:gd name="connsiteY22" fmla="*/ 2111375 h 2174875"/>
+            <a:gd name="connsiteX23" fmla="*/ 1387710 w 3499085"/>
+            <a:gd name="connsiteY23" fmla="*/ 2143125 h 2174875"/>
+            <a:gd name="connsiteX24" fmla="*/ 1435335 w 3499085"/>
+            <a:gd name="connsiteY24" fmla="*/ 2174875 h 2174875"/>
+            <a:gd name="connsiteX25" fmla="*/ 1975085 w 3499085"/>
+            <a:gd name="connsiteY25" fmla="*/ 2159000 h 2174875"/>
+            <a:gd name="connsiteX26" fmla="*/ 2117960 w 3499085"/>
+            <a:gd name="connsiteY26" fmla="*/ 2143125 h 2174875"/>
+            <a:gd name="connsiteX27" fmla="*/ 2213210 w 3499085"/>
+            <a:gd name="connsiteY27" fmla="*/ 2111375 h 2174875"/>
+            <a:gd name="connsiteX28" fmla="*/ 2276710 w 3499085"/>
+            <a:gd name="connsiteY28" fmla="*/ 2079625 h 2174875"/>
+            <a:gd name="connsiteX29" fmla="*/ 2403710 w 3499085"/>
+            <a:gd name="connsiteY29" fmla="*/ 2063750 h 2174875"/>
+            <a:gd name="connsiteX30" fmla="*/ 2546585 w 3499085"/>
+            <a:gd name="connsiteY30" fmla="*/ 1984375 h 2174875"/>
+            <a:gd name="connsiteX31" fmla="*/ 2594210 w 3499085"/>
+            <a:gd name="connsiteY31" fmla="*/ 1952625 h 2174875"/>
+            <a:gd name="connsiteX32" fmla="*/ 2641835 w 3499085"/>
+            <a:gd name="connsiteY32" fmla="*/ 1920875 h 2174875"/>
+            <a:gd name="connsiteX33" fmla="*/ 2721210 w 3499085"/>
+            <a:gd name="connsiteY33" fmla="*/ 1825625 h 2174875"/>
+            <a:gd name="connsiteX34" fmla="*/ 2768835 w 3499085"/>
+            <a:gd name="connsiteY34" fmla="*/ 1793875 h 2174875"/>
+            <a:gd name="connsiteX35" fmla="*/ 2848210 w 3499085"/>
+            <a:gd name="connsiteY35" fmla="*/ 1714500 h 2174875"/>
+            <a:gd name="connsiteX36" fmla="*/ 2943460 w 3499085"/>
+            <a:gd name="connsiteY36" fmla="*/ 1635125 h 2174875"/>
+            <a:gd name="connsiteX37" fmla="*/ 3102210 w 3499085"/>
+            <a:gd name="connsiteY37" fmla="*/ 1397000 h 2174875"/>
+            <a:gd name="connsiteX38" fmla="*/ 3133960 w 3499085"/>
+            <a:gd name="connsiteY38" fmla="*/ 1349375 h 2174875"/>
+            <a:gd name="connsiteX39" fmla="*/ 3165710 w 3499085"/>
+            <a:gd name="connsiteY39" fmla="*/ 1301750 h 2174875"/>
+            <a:gd name="connsiteX40" fmla="*/ 3181585 w 3499085"/>
+            <a:gd name="connsiteY40" fmla="*/ 1206500 h 2174875"/>
+            <a:gd name="connsiteX41" fmla="*/ 3197460 w 3499085"/>
+            <a:gd name="connsiteY41" fmla="*/ 1095375 h 2174875"/>
+            <a:gd name="connsiteX42" fmla="*/ 3229210 w 3499085"/>
+            <a:gd name="connsiteY42" fmla="*/ 1000125 h 2174875"/>
+            <a:gd name="connsiteX43" fmla="*/ 3213335 w 3499085"/>
+            <a:gd name="connsiteY43" fmla="*/ 730250 h 2174875"/>
+            <a:gd name="connsiteX44" fmla="*/ 3229210 w 3499085"/>
+            <a:gd name="connsiteY44" fmla="*/ 650875 h 2174875"/>
+            <a:gd name="connsiteX45" fmla="*/ 3499085 w 3499085"/>
+            <a:gd name="connsiteY45" fmla="*/ 619125 h 2174875"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3499085" h="2174875">
+              <a:moveTo>
+                <a:pt x="260585" y="31750"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="234127" y="26458"/>
+                <a:pt x="207387" y="22419"/>
+                <a:pt x="181210" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="164976" y="11816"/>
+                <a:pt x="150319" y="0"/>
+                <a:pt x="133585" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="116851" y="0"/>
+                <a:pt x="101835" y="10583"/>
+                <a:pt x="85960" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-83106" y="269474"/>
+                <a:pt x="45018" y="57605"/>
+                <a:pt x="70085" y="809625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72384" y="878582"/>
+                <a:pt x="77402" y="947538"/>
+                <a:pt x="85960" y="1016000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="88036" y="1032604"/>
+                <a:pt x="97238" y="1047535"/>
+                <a:pt x="101835" y="1063625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="107829" y="1084604"/>
+                <a:pt x="114123" y="1105604"/>
+                <a:pt x="117710" y="1127125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="124724" y="1169207"/>
+                <a:pt x="128293" y="1211792"/>
+                <a:pt x="133585" y="1254125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="138877" y="1397000"/>
+                <a:pt x="136516" y="1540364"/>
+                <a:pt x="149460" y="1682750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="152490" y="1716080"/>
+                <a:pt x="149460" y="1767417"/>
+                <a:pt x="181210" y="1778000"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="228835" y="1793875"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="250002" y="1809750"/>
+                <a:pt x="272246" y="1824281"/>
+                <a:pt x="292335" y="1841500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="309381" y="1856111"/>
+                <a:pt x="321691" y="1876076"/>
+                <a:pt x="339960" y="1889125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="392611" y="1926733"/>
+                <a:pt x="399264" y="1914541"/>
+                <a:pt x="451085" y="1936750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="472837" y="1946072"/>
+                <a:pt x="492833" y="1959178"/>
+                <a:pt x="514585" y="1968500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="529966" y="1975092"/>
+                <a:pt x="546829" y="1977783"/>
+                <a:pt x="562210" y="1984375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="583962" y="1993697"/>
+                <a:pt x="602307" y="2012615"/>
+                <a:pt x="625710" y="2016125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="709603" y="2028709"/>
+                <a:pt x="795043" y="2026708"/>
+                <a:pt x="879710" y="2032000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="900877" y="2037292"/>
+                <a:pt x="922231" y="2041881"/>
+                <a:pt x="943210" y="2047875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="959300" y="2052472"/>
+                <a:pt x="974269" y="2061383"/>
+                <a:pt x="990835" y="2063750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1048696" y="2072016"/>
+                <a:pt x="1107252" y="2074333"/>
+                <a:pt x="1165460" y="2079625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1197210" y="2090208"/>
+                <a:pt x="1227892" y="2104811"/>
+                <a:pt x="1260710" y="2111375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1290900" y="2117413"/>
+                <a:pt x="1355167" y="2126853"/>
+                <a:pt x="1387710" y="2143125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1404775" y="2151658"/>
+                <a:pt x="1419460" y="2164292"/>
+                <a:pt x="1435335" y="2174875"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1975085" y="2159000"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2022951" y="2156774"/>
+                <a:pt x="2070972" y="2152523"/>
+                <a:pt x="2117960" y="2143125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2150778" y="2136561"/>
+                <a:pt x="2183276" y="2126342"/>
+                <a:pt x="2213210" y="2111375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2234377" y="2100792"/>
+                <a:pt x="2253752" y="2085365"/>
+                <a:pt x="2276710" y="2079625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2318099" y="2069278"/>
+                <a:pt x="2361377" y="2069042"/>
+                <a:pt x="2403710" y="2063750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2487536" y="2035808"/>
+                <a:pt x="2437412" y="2057157"/>
+                <a:pt x="2546585" y="1984375"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2594210" y="1952625"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2641835" y="1920875"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2673054" y="1874047"/>
+                <a:pt x="2675373" y="1863823"/>
+                <a:pt x="2721210" y="1825625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2735867" y="1813411"/>
+                <a:pt x="2752960" y="1804458"/>
+                <a:pt x="2768835" y="1793875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2827043" y="1706563"/>
+                <a:pt x="2768835" y="1780646"/>
+                <a:pt x="2848210" y="1714500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2970442" y="1612640"/>
+                <a:pt x="2825216" y="1713954"/>
+                <a:pt x="2943460" y="1635125"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3102210" y="1397000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3133960" y="1349375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3165710" y="1301750"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3171002" y="1270000"/>
+                <a:pt x="3176691" y="1238314"/>
+                <a:pt x="3181585" y="1206500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3187275" y="1169517"/>
+                <a:pt x="3189046" y="1131835"/>
+                <a:pt x="3197460" y="1095375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3204985" y="1062765"/>
+                <a:pt x="3229210" y="1000125"/>
+                <a:pt x="3229210" y="1000125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3223918" y="910167"/>
+                <a:pt x="3213335" y="820364"/>
+                <a:pt x="3213335" y="730250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3213335" y="703268"/>
+                <a:pt x="3210131" y="669954"/>
+                <a:pt x="3229210" y="650875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3279367" y="600718"/>
+                <a:pt x="3465464" y="619125"/>
+                <a:pt x="3499085" y="619125"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Freeform: Shape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F943051-1AB1-4DD1-AD2F-E92C0229F690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7080250" y="492125"/>
+          <a:ext cx="4159250" cy="3683000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 4159250 w 4159250"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 3683000"/>
+            <a:gd name="connsiteX1" fmla="*/ 4079875 w 4159250"/>
+            <a:gd name="connsiteY1" fmla="*/ 15875 h 3683000"/>
+            <a:gd name="connsiteX2" fmla="*/ 3984625 w 4159250"/>
+            <a:gd name="connsiteY2" fmla="*/ 47625 h 3683000"/>
+            <a:gd name="connsiteX3" fmla="*/ 3937000 w 4159250"/>
+            <a:gd name="connsiteY3" fmla="*/ 63500 h 3683000"/>
+            <a:gd name="connsiteX4" fmla="*/ 3778250 w 4159250"/>
+            <a:gd name="connsiteY4" fmla="*/ 95250 h 3683000"/>
+            <a:gd name="connsiteX5" fmla="*/ 3746500 w 4159250"/>
+            <a:gd name="connsiteY5" fmla="*/ 142875 h 3683000"/>
+            <a:gd name="connsiteX6" fmla="*/ 3730625 w 4159250"/>
+            <a:gd name="connsiteY6" fmla="*/ 190500 h 3683000"/>
+            <a:gd name="connsiteX7" fmla="*/ 3683000 w 4159250"/>
+            <a:gd name="connsiteY7" fmla="*/ 238125 h 3683000"/>
+            <a:gd name="connsiteX8" fmla="*/ 3667125 w 4159250"/>
+            <a:gd name="connsiteY8" fmla="*/ 285750 h 3683000"/>
+            <a:gd name="connsiteX9" fmla="*/ 3683000 w 4159250"/>
+            <a:gd name="connsiteY9" fmla="*/ 714375 h 3683000"/>
+            <a:gd name="connsiteX10" fmla="*/ 3698875 w 4159250"/>
+            <a:gd name="connsiteY10" fmla="*/ 793750 h 3683000"/>
+            <a:gd name="connsiteX11" fmla="*/ 3730625 w 4159250"/>
+            <a:gd name="connsiteY11" fmla="*/ 889000 h 3683000"/>
+            <a:gd name="connsiteX12" fmla="*/ 3746500 w 4159250"/>
+            <a:gd name="connsiteY12" fmla="*/ 952500 h 3683000"/>
+            <a:gd name="connsiteX13" fmla="*/ 3762375 w 4159250"/>
+            <a:gd name="connsiteY13" fmla="*/ 1000125 h 3683000"/>
+            <a:gd name="connsiteX14" fmla="*/ 3794125 w 4159250"/>
+            <a:gd name="connsiteY14" fmla="*/ 1143000 h 3683000"/>
+            <a:gd name="connsiteX15" fmla="*/ 3810000 w 4159250"/>
+            <a:gd name="connsiteY15" fmla="*/ 1301750 h 3683000"/>
+            <a:gd name="connsiteX16" fmla="*/ 3778250 w 4159250"/>
+            <a:gd name="connsiteY16" fmla="*/ 1889125 h 3683000"/>
+            <a:gd name="connsiteX17" fmla="*/ 3794125 w 4159250"/>
+            <a:gd name="connsiteY17" fmla="*/ 2047875 h 3683000"/>
+            <a:gd name="connsiteX18" fmla="*/ 3810000 w 4159250"/>
+            <a:gd name="connsiteY18" fmla="*/ 2127250 h 3683000"/>
+            <a:gd name="connsiteX19" fmla="*/ 3825875 w 4159250"/>
+            <a:gd name="connsiteY19" fmla="*/ 2286000 h 3683000"/>
+            <a:gd name="connsiteX20" fmla="*/ 3857625 w 4159250"/>
+            <a:gd name="connsiteY20" fmla="*/ 2381250 h 3683000"/>
+            <a:gd name="connsiteX21" fmla="*/ 3889375 w 4159250"/>
+            <a:gd name="connsiteY21" fmla="*/ 2476500 h 3683000"/>
+            <a:gd name="connsiteX22" fmla="*/ 3952875 w 4159250"/>
+            <a:gd name="connsiteY22" fmla="*/ 2667000 h 3683000"/>
+            <a:gd name="connsiteX23" fmla="*/ 3968750 w 4159250"/>
+            <a:gd name="connsiteY23" fmla="*/ 2714625 h 3683000"/>
+            <a:gd name="connsiteX24" fmla="*/ 3984625 w 4159250"/>
+            <a:gd name="connsiteY24" fmla="*/ 2762250 h 3683000"/>
+            <a:gd name="connsiteX25" fmla="*/ 4000500 w 4159250"/>
+            <a:gd name="connsiteY25" fmla="*/ 2889250 h 3683000"/>
+            <a:gd name="connsiteX26" fmla="*/ 3984625 w 4159250"/>
+            <a:gd name="connsiteY26" fmla="*/ 3079750 h 3683000"/>
+            <a:gd name="connsiteX27" fmla="*/ 3952875 w 4159250"/>
+            <a:gd name="connsiteY27" fmla="*/ 3175000 h 3683000"/>
+            <a:gd name="connsiteX28" fmla="*/ 3873500 w 4159250"/>
+            <a:gd name="connsiteY28" fmla="*/ 3317875 h 3683000"/>
+            <a:gd name="connsiteX29" fmla="*/ 3825875 w 4159250"/>
+            <a:gd name="connsiteY29" fmla="*/ 3365500 h 3683000"/>
+            <a:gd name="connsiteX30" fmla="*/ 3698875 w 4159250"/>
+            <a:gd name="connsiteY30" fmla="*/ 3508375 h 3683000"/>
+            <a:gd name="connsiteX31" fmla="*/ 3603625 w 4159250"/>
+            <a:gd name="connsiteY31" fmla="*/ 3571875 h 3683000"/>
+            <a:gd name="connsiteX32" fmla="*/ 3556000 w 4159250"/>
+            <a:gd name="connsiteY32" fmla="*/ 3603625 h 3683000"/>
+            <a:gd name="connsiteX33" fmla="*/ 3508375 w 4159250"/>
+            <a:gd name="connsiteY33" fmla="*/ 3619500 h 3683000"/>
+            <a:gd name="connsiteX34" fmla="*/ 3460750 w 4159250"/>
+            <a:gd name="connsiteY34" fmla="*/ 3651250 h 3683000"/>
+            <a:gd name="connsiteX35" fmla="*/ 3365500 w 4159250"/>
+            <a:gd name="connsiteY35" fmla="*/ 3683000 h 3683000"/>
+            <a:gd name="connsiteX36" fmla="*/ 2984500 w 4159250"/>
+            <a:gd name="connsiteY36" fmla="*/ 3667125 h 3683000"/>
+            <a:gd name="connsiteX37" fmla="*/ 2857500 w 4159250"/>
+            <a:gd name="connsiteY37" fmla="*/ 3635375 h 3683000"/>
+            <a:gd name="connsiteX38" fmla="*/ 2794000 w 4159250"/>
+            <a:gd name="connsiteY38" fmla="*/ 3619500 h 3683000"/>
+            <a:gd name="connsiteX39" fmla="*/ 2682875 w 4159250"/>
+            <a:gd name="connsiteY39" fmla="*/ 3603625 h 3683000"/>
+            <a:gd name="connsiteX40" fmla="*/ 2619375 w 4159250"/>
+            <a:gd name="connsiteY40" fmla="*/ 3587750 h 3683000"/>
+            <a:gd name="connsiteX41" fmla="*/ 2571750 w 4159250"/>
+            <a:gd name="connsiteY41" fmla="*/ 3571875 h 3683000"/>
+            <a:gd name="connsiteX42" fmla="*/ 2381250 w 4159250"/>
+            <a:gd name="connsiteY42" fmla="*/ 3556000 h 3683000"/>
+            <a:gd name="connsiteX43" fmla="*/ 2317750 w 4159250"/>
+            <a:gd name="connsiteY43" fmla="*/ 3540125 h 3683000"/>
+            <a:gd name="connsiteX44" fmla="*/ 1793875 w 4159250"/>
+            <a:gd name="connsiteY44" fmla="*/ 3508375 h 3683000"/>
+            <a:gd name="connsiteX45" fmla="*/ 1301750 w 4159250"/>
+            <a:gd name="connsiteY45" fmla="*/ 3524250 h 3683000"/>
+            <a:gd name="connsiteX46" fmla="*/ 1127125 w 4159250"/>
+            <a:gd name="connsiteY46" fmla="*/ 3540125 h 3683000"/>
+            <a:gd name="connsiteX47" fmla="*/ 762000 w 4159250"/>
+            <a:gd name="connsiteY47" fmla="*/ 3524250 h 3683000"/>
+            <a:gd name="connsiteX48" fmla="*/ 428625 w 4159250"/>
+            <a:gd name="connsiteY48" fmla="*/ 3492500 h 3683000"/>
+            <a:gd name="connsiteX49" fmla="*/ 238125 w 4159250"/>
+            <a:gd name="connsiteY49" fmla="*/ 3460750 h 3683000"/>
+            <a:gd name="connsiteX50" fmla="*/ 127000 w 4159250"/>
+            <a:gd name="connsiteY50" fmla="*/ 3397250 h 3683000"/>
+            <a:gd name="connsiteX51" fmla="*/ 95250 w 4159250"/>
+            <a:gd name="connsiteY51" fmla="*/ 3349625 h 3683000"/>
+            <a:gd name="connsiteX52" fmla="*/ 63500 w 4159250"/>
+            <a:gd name="connsiteY52" fmla="*/ 3254375 h 3683000"/>
+            <a:gd name="connsiteX53" fmla="*/ 31750 w 4159250"/>
+            <a:gd name="connsiteY53" fmla="*/ 3206750 h 3683000"/>
+            <a:gd name="connsiteX54" fmla="*/ 0 w 4159250"/>
+            <a:gd name="connsiteY54" fmla="*/ 3111500 h 3683000"/>
+            <a:gd name="connsiteX55" fmla="*/ 15875 w 4159250"/>
+            <a:gd name="connsiteY55" fmla="*/ 3032125 h 3683000"/>
+            <a:gd name="connsiteX56" fmla="*/ 63500 w 4159250"/>
+            <a:gd name="connsiteY56" fmla="*/ 3016250 h 3683000"/>
+            <a:gd name="connsiteX57" fmla="*/ 111125 w 4159250"/>
+            <a:gd name="connsiteY57" fmla="*/ 2984500 h 3683000"/>
+            <a:gd name="connsiteX58" fmla="*/ 254000 w 4159250"/>
+            <a:gd name="connsiteY58" fmla="*/ 3000375 h 3683000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4159250" h="3683000">
+              <a:moveTo>
+                <a:pt x="4159250" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="4132792" y="5292"/>
+                <a:pt x="4105907" y="8775"/>
+                <a:pt x="4079875" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4047587" y="24681"/>
+                <a:pt x="4016375" y="37042"/>
+                <a:pt x="3984625" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3968750" y="52917"/>
+                <a:pt x="3953409" y="60218"/>
+                <a:pt x="3937000" y="63500"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3778250" y="95250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3767667" y="111125"/>
+                <a:pt x="3755033" y="125810"/>
+                <a:pt x="3746500" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3739016" y="157842"/>
+                <a:pt x="3739907" y="176577"/>
+                <a:pt x="3730625" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3718172" y="209180"/>
+                <a:pt x="3698875" y="222250"/>
+                <a:pt x="3683000" y="238125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3677708" y="254000"/>
+                <a:pt x="3670407" y="269341"/>
+                <a:pt x="3667125" y="285750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3636265" y="440052"/>
+                <a:pt x="3647367" y="536208"/>
+                <a:pt x="3683000" y="714375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3688292" y="740833"/>
+                <a:pt x="3691775" y="767718"/>
+                <a:pt x="3698875" y="793750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3707681" y="826038"/>
+                <a:pt x="3722508" y="856532"/>
+                <a:pt x="3730625" y="889000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3735917" y="910167"/>
+                <a:pt x="3740506" y="931521"/>
+                <a:pt x="3746500" y="952500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3751097" y="968590"/>
+                <a:pt x="3758745" y="983790"/>
+                <a:pt x="3762375" y="1000125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3799627" y="1167759"/>
+                <a:pt x="3758388" y="1035789"/>
+                <a:pt x="3794125" y="1143000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3799417" y="1195917"/>
+                <a:pt x="3810000" y="1248569"/>
+                <a:pt x="3810000" y="1301750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3810000" y="1666000"/>
+                <a:pt x="3808351" y="1648315"/>
+                <a:pt x="3778250" y="1889125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3783542" y="1942042"/>
+                <a:pt x="3787096" y="1995161"/>
+                <a:pt x="3794125" y="2047875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3797691" y="2074621"/>
+                <a:pt x="3806434" y="2100504"/>
+                <a:pt x="3810000" y="2127250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3817029" y="2179964"/>
+                <a:pt x="3816074" y="2233730"/>
+                <a:pt x="3825875" y="2286000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3832043" y="2318894"/>
+                <a:pt x="3847042" y="2349500"/>
+                <a:pt x="3857625" y="2381250"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3889375" y="2476500"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3952875" y="2667000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3968750" y="2714625"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3984625" y="2762250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3989917" y="2804583"/>
+                <a:pt x="4000500" y="2846587"/>
+                <a:pt x="4000500" y="2889250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4000500" y="2952970"/>
+                <a:pt x="3995101" y="3016897"/>
+                <a:pt x="3984625" y="3079750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3979123" y="3112762"/>
+                <a:pt x="3963458" y="3143250"/>
+                <a:pt x="3952875" y="3175000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3932912" y="3234888"/>
+                <a:pt x="3928087" y="3263288"/>
+                <a:pt x="3873500" y="3317875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3857625" y="3333750"/>
+                <a:pt x="3840248" y="3348253"/>
+                <a:pt x="3825875" y="3365500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3766228" y="3437077"/>
+                <a:pt x="3814654" y="3431189"/>
+                <a:pt x="3698875" y="3508375"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3603625" y="3571875"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3587750" y="3582458"/>
+                <a:pt x="3574100" y="3597592"/>
+                <a:pt x="3556000" y="3603625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3540125" y="3608917"/>
+                <a:pt x="3523342" y="3612016"/>
+                <a:pt x="3508375" y="3619500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3491310" y="3628033"/>
+                <a:pt x="3478185" y="3643501"/>
+                <a:pt x="3460750" y="3651250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3430167" y="3664842"/>
+                <a:pt x="3365500" y="3683000"/>
+                <a:pt x="3365500" y="3683000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3238500" y="3677708"/>
+                <a:pt x="3111309" y="3675870"/>
+                <a:pt x="2984500" y="3667125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2920683" y="3662724"/>
+                <a:pt x="2910898" y="3650632"/>
+                <a:pt x="2857500" y="3635375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2836521" y="3629381"/>
+                <a:pt x="2815466" y="3623403"/>
+                <a:pt x="2794000" y="3619500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2757186" y="3612807"/>
+                <a:pt x="2719689" y="3610318"/>
+                <a:pt x="2682875" y="3603625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2661409" y="3599722"/>
+                <a:pt x="2640354" y="3593744"/>
+                <a:pt x="2619375" y="3587750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2603285" y="3583153"/>
+                <a:pt x="2588337" y="3574087"/>
+                <a:pt x="2571750" y="3571875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2508589" y="3563454"/>
+                <a:pt x="2444750" y="3561292"/>
+                <a:pt x="2381250" y="3556000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2360083" y="3550708"/>
+                <a:pt x="2339349" y="3543211"/>
+                <a:pt x="2317750" y="3540125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2158518" y="3517378"/>
+                <a:pt x="1935554" y="3514535"/>
+                <a:pt x="1793875" y="3508375"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1301750" y="3524250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1243368" y="3527030"/>
+                <a:pt x="1185573" y="3540125"/>
+                <a:pt x="1127125" y="3540125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1005302" y="3540125"/>
+                <a:pt x="883708" y="3529542"/>
+                <a:pt x="762000" y="3524250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="528310" y="3490866"/>
+                <a:pt x="785537" y="3524947"/>
+                <a:pt x="428625" y="3492500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="388057" y="3488812"/>
+                <a:pt x="287740" y="3479356"/>
+                <a:pt x="238125" y="3460750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="192088" y="3443486"/>
+                <a:pt x="166478" y="3423569"/>
+                <a:pt x="127000" y="3397250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="116417" y="3381375"/>
+                <a:pt x="102999" y="3367060"/>
+                <a:pt x="95250" y="3349625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="81658" y="3319042"/>
+                <a:pt x="82064" y="3282222"/>
+                <a:pt x="63500" y="3254375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="52917" y="3238500"/>
+                <a:pt x="39499" y="3224185"/>
+                <a:pt x="31750" y="3206750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18158" y="3176167"/>
+                <a:pt x="0" y="3111500"/>
+                <a:pt x="0" y="3111500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5292" y="3085042"/>
+                <a:pt x="908" y="3054576"/>
+                <a:pt x="15875" y="3032125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25157" y="3018202"/>
+                <a:pt x="48533" y="3023734"/>
+                <a:pt x="63500" y="3016250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="80565" y="3007717"/>
+                <a:pt x="95250" y="2995083"/>
+                <a:pt x="111125" y="2984500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="188871" y="3010415"/>
+                <a:pt x="142016" y="3000375"/>
+                <a:pt x="254000" y="3000375"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Freeform: Shape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD245C40-AEDB-4884-B57F-9989E7FB064F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6969125" y="1428750"/>
+          <a:ext cx="4286250" cy="714375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 349250 w 4286250"/>
+            <a:gd name="connsiteY0" fmla="*/ 714375 h 714375"/>
+            <a:gd name="connsiteX1" fmla="*/ 206375 w 4286250"/>
+            <a:gd name="connsiteY1" fmla="*/ 682625 h 714375"/>
+            <a:gd name="connsiteX2" fmla="*/ 111125 w 4286250"/>
+            <a:gd name="connsiteY2" fmla="*/ 650875 h 714375"/>
+            <a:gd name="connsiteX3" fmla="*/ 31750 w 4286250"/>
+            <a:gd name="connsiteY3" fmla="*/ 555625 h 714375"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 4286250"/>
+            <a:gd name="connsiteY4" fmla="*/ 460375 h 714375"/>
+            <a:gd name="connsiteX5" fmla="*/ 31750 w 4286250"/>
+            <a:gd name="connsiteY5" fmla="*/ 301625 h 714375"/>
+            <a:gd name="connsiteX6" fmla="*/ 79375 w 4286250"/>
+            <a:gd name="connsiteY6" fmla="*/ 254000 h 714375"/>
+            <a:gd name="connsiteX7" fmla="*/ 142875 w 4286250"/>
+            <a:gd name="connsiteY7" fmla="*/ 158750 h 714375"/>
+            <a:gd name="connsiteX8" fmla="*/ 238125 w 4286250"/>
+            <a:gd name="connsiteY8" fmla="*/ 111125 h 714375"/>
+            <a:gd name="connsiteX9" fmla="*/ 285750 w 4286250"/>
+            <a:gd name="connsiteY9" fmla="*/ 95250 h 714375"/>
+            <a:gd name="connsiteX10" fmla="*/ 412750 w 4286250"/>
+            <a:gd name="connsiteY10" fmla="*/ 63500 h 714375"/>
+            <a:gd name="connsiteX11" fmla="*/ 460375 w 4286250"/>
+            <a:gd name="connsiteY11" fmla="*/ 47625 h 714375"/>
+            <a:gd name="connsiteX12" fmla="*/ 571500 w 4286250"/>
+            <a:gd name="connsiteY12" fmla="*/ 31750 h 714375"/>
+            <a:gd name="connsiteX13" fmla="*/ 984250 w 4286250"/>
+            <a:gd name="connsiteY13" fmla="*/ 0 h 714375"/>
+            <a:gd name="connsiteX14" fmla="*/ 1206500 w 4286250"/>
+            <a:gd name="connsiteY14" fmla="*/ 15875 h 714375"/>
+            <a:gd name="connsiteX15" fmla="*/ 1301750 w 4286250"/>
+            <a:gd name="connsiteY15" fmla="*/ 31750 h 714375"/>
+            <a:gd name="connsiteX16" fmla="*/ 1666875 w 4286250"/>
+            <a:gd name="connsiteY16" fmla="*/ 47625 h 714375"/>
+            <a:gd name="connsiteX17" fmla="*/ 1825625 w 4286250"/>
+            <a:gd name="connsiteY17" fmla="*/ 63500 h 714375"/>
+            <a:gd name="connsiteX18" fmla="*/ 2349500 w 4286250"/>
+            <a:gd name="connsiteY18" fmla="*/ 95250 h 714375"/>
+            <a:gd name="connsiteX19" fmla="*/ 2746375 w 4286250"/>
+            <a:gd name="connsiteY19" fmla="*/ 63500 h 714375"/>
+            <a:gd name="connsiteX20" fmla="*/ 2841625 w 4286250"/>
+            <a:gd name="connsiteY20" fmla="*/ 31750 h 714375"/>
+            <a:gd name="connsiteX21" fmla="*/ 2889250 w 4286250"/>
+            <a:gd name="connsiteY21" fmla="*/ 15875 h 714375"/>
+            <a:gd name="connsiteX22" fmla="*/ 3159125 w 4286250"/>
+            <a:gd name="connsiteY22" fmla="*/ 31750 h 714375"/>
+            <a:gd name="connsiteX23" fmla="*/ 3302000 w 4286250"/>
+            <a:gd name="connsiteY23" fmla="*/ 79375 h 714375"/>
+            <a:gd name="connsiteX24" fmla="*/ 3397250 w 4286250"/>
+            <a:gd name="connsiteY24" fmla="*/ 95250 h 714375"/>
+            <a:gd name="connsiteX25" fmla="*/ 3444875 w 4286250"/>
+            <a:gd name="connsiteY25" fmla="*/ 111125 h 714375"/>
+            <a:gd name="connsiteX26" fmla="*/ 3635375 w 4286250"/>
+            <a:gd name="connsiteY26" fmla="*/ 158750 h 714375"/>
+            <a:gd name="connsiteX27" fmla="*/ 3730625 w 4286250"/>
+            <a:gd name="connsiteY27" fmla="*/ 222250 h 714375"/>
+            <a:gd name="connsiteX28" fmla="*/ 3746500 w 4286250"/>
+            <a:gd name="connsiteY28" fmla="*/ 333375 h 714375"/>
+            <a:gd name="connsiteX29" fmla="*/ 3762375 w 4286250"/>
+            <a:gd name="connsiteY29" fmla="*/ 381000 h 714375"/>
+            <a:gd name="connsiteX30" fmla="*/ 3730625 w 4286250"/>
+            <a:gd name="connsiteY30" fmla="*/ 603250 h 714375"/>
+            <a:gd name="connsiteX31" fmla="*/ 3746500 w 4286250"/>
+            <a:gd name="connsiteY31" fmla="*/ 650875 h 714375"/>
+            <a:gd name="connsiteX32" fmla="*/ 4048125 w 4286250"/>
+            <a:gd name="connsiteY32" fmla="*/ 682625 h 714375"/>
+            <a:gd name="connsiteX33" fmla="*/ 4286250 w 4286250"/>
+            <a:gd name="connsiteY33" fmla="*/ 698500 h 714375"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4286250" h="714375">
+              <a:moveTo>
+                <a:pt x="349250" y="714375"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="303932" y="705311"/>
+                <a:pt x="251213" y="696077"/>
+                <a:pt x="206375" y="682625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="174319" y="673008"/>
+                <a:pt x="111125" y="650875"/>
+                <a:pt x="111125" y="650875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="81217" y="620967"/>
+                <a:pt x="49431" y="595408"/>
+                <a:pt x="31750" y="555625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18158" y="525042"/>
+                <a:pt x="0" y="460375"/>
+                <a:pt x="0" y="460375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1344" y="450964"/>
+                <a:pt x="11599" y="331851"/>
+                <a:pt x="31750" y="301625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44203" y="282945"/>
+                <a:pt x="65592" y="271721"/>
+                <a:pt x="79375" y="254000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="102802" y="223879"/>
+                <a:pt x="106674" y="170817"/>
+                <a:pt x="142875" y="158750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="262582" y="118848"/>
+                <a:pt x="115028" y="172673"/>
+                <a:pt x="238125" y="111125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="253092" y="103641"/>
+                <a:pt x="269606" y="99653"/>
+                <a:pt x="285750" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="327849" y="83769"/>
+                <a:pt x="371353" y="77299"/>
+                <a:pt x="412750" y="63500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="428625" y="58208"/>
+                <a:pt x="443966" y="50907"/>
+                <a:pt x="460375" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="497066" y="40287"/>
+                <a:pt x="534371" y="36391"/>
+                <a:pt x="571500" y="31750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="755154" y="8793"/>
+                <a:pt x="758280" y="13292"/>
+                <a:pt x="984250" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1058333" y="5292"/>
+                <a:pt x="1132597" y="8485"/>
+                <a:pt x="1206500" y="15875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1238528" y="19078"/>
+                <a:pt x="1269638" y="29535"/>
+                <a:pt x="1301750" y="31750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1423285" y="40132"/>
+                <a:pt x="1545167" y="42333"/>
+                <a:pt x="1666875" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1719792" y="52917"/>
+                <a:pt x="1772522" y="60630"/>
+                <a:pt x="1825625" y="63500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2356047" y="92171"/>
+                <a:pt x="2097546" y="53258"/>
+                <a:pt x="2349500" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2458914" y="89779"/>
+                <a:pt x="2622940" y="97164"/>
+                <a:pt x="2746375" y="63500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2778663" y="54694"/>
+                <a:pt x="2809875" y="42333"/>
+                <a:pt x="2841625" y="31750"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2889250" y="15875"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2979208" y="21167"/>
+                <a:pt x="3069768" y="20095"/>
+                <a:pt x="3159125" y="31750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3378200" y="60325"/>
+                <a:pt x="3168650" y="57150"/>
+                <a:pt x="3302000" y="79375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3333750" y="84667"/>
+                <a:pt x="3365829" y="88267"/>
+                <a:pt x="3397250" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3413585" y="98880"/>
+                <a:pt x="3428540" y="107495"/>
+                <a:pt x="3444875" y="111125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3498437" y="123028"/>
+                <a:pt x="3587258" y="126672"/>
+                <a:pt x="3635375" y="158750"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3730625" y="222250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="3735917" y="259292"/>
+                <a:pt x="3739162" y="296684"/>
+                <a:pt x="3746500" y="333375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3749782" y="349784"/>
+                <a:pt x="3762375" y="364266"/>
+                <a:pt x="3762375" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3762375" y="520120"/>
+                <a:pt x="3760004" y="515112"/>
+                <a:pt x="3730625" y="603250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3735917" y="619125"/>
+                <a:pt x="3737218" y="636952"/>
+                <a:pt x="3746500" y="650875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3819675" y="760637"/>
+                <a:pt x="3901835" y="691768"/>
+                <a:pt x="4048125" y="682625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4179389" y="708878"/>
+                <a:pt x="4100518" y="698500"/>
+                <a:pt x="4286250" y="698500"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1249,9 +4807,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D224C6BA-3041-4FF2-9ED2-49CADB590F58}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E26"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="B58" sqref="B58:E61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1263,781 +4826,908 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
-        <v>57</v>
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <v>30</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
+        <v>3</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32">
+        <v>4</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>30</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="20">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32">
+        <v>5</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="20">
+        <v>45</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32">
+        <v>6</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="20">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64">
+        <v>7</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="38">
+        <v>26</v>
+      </c>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="49">
+        <v>26</v>
+      </c>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>8</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="49">
+        <v>8</v>
+      </c>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
+        <v>9</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="41">
+        <v>8</v>
+      </c>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="62">
+        <v>10</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="63"/>
+      <c r="B42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="62">
+        <v>11</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="63"/>
+      <c r="B47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="62">
+        <v>12</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
+      <c r="B50" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="63"/>
+      <c r="B51" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="62">
+        <v>13</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
-        <v>30</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="12" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="63"/>
+      <c r="B57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14">
-        <v>30</v>
-      </c>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="62">
+        <v>14</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="63"/>
+      <c r="B61" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="62">
+        <v>15</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="61"/>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
-        <v>30</v>
-      </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="28">
-        <v>30</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+      <c r="C66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="28">
-        <v>45</v>
-      </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="C67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="63"/>
+      <c r="B68" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="11">
-        <v>30</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="26" t="s">
+      <c r="C68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28">
-        <v>30</v>
-      </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
-        <v>5</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="28">
-        <v>45</v>
-      </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
-        <v>6</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="28">
-        <v>10</v>
-      </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>8</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>9</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>10</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="30"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="30"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="30"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="28">
-        <v>1</v>
-      </c>
-      <c r="E48" s="31"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>11</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>12</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="30"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="30"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="30"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="14">
-        <v>1</v>
-      </c>
-      <c r="E59" s="32"/>
+      <c r="E68" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B20:E20"/>
+  <mergeCells count="31">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2048,9 +5738,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97035F8F-4CA6-41CD-B35D-614D8FDC778B}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2065,17 +5756,17 @@
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>44</v>
+      <c r="G1" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2084,16 +5775,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2101,22 +5792,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2124,22 +5815,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2147,22 +5838,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2170,22 +5861,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2193,22 +5884,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2216,22 +5907,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2239,16 +5930,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -2257,16 +5948,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -2275,16 +5966,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -2294,13 +5985,13 @@
         <v>7</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2309,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -2320,16 +6011,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2337,16 +6028,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,16 +6045,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2371,10 +6062,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2387,7 +6078,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2401,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2412,10 +6103,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2423,10 +6114,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2434,10 +6125,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,10 +6136,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,10 +6147,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,10 +6158,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2478,10 +6169,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2489,10 +6180,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2500,10 +6191,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2511,10 +6202,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2522,10 +6213,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2533,10 +6224,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2544,10 +6235,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,10 +6246,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2566,10 +6257,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2577,10 +6268,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,10 +6279,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2601,4 +6292,664 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99330B9-CAFA-4822-8F10-146FD06622F1}">
+  <dimension ref="B1:AJ36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V39" sqref="V38:V39"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="J2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="N2" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+      <c r="R2" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="46"/>
+      <c r="T2" s="47"/>
+      <c r="V2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="AG2" s="60"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="36"/>
+    </row>
+    <row r="4" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="9">
+        <v>30</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="12">
+        <v>10</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="59">
+        <v>8</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="58">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="36"/>
+    </row>
+    <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12">
+        <v>30</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="37"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="37"/>
+    </row>
+    <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="J10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="N10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="R10" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="F13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="J13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="J14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+    </row>
+    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="N21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="F33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="J33" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="J33:L33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables&Relations.xlsx
+++ b/Tables&Relations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\ghrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309AABFE-FDFD-4421-9CE6-924653D9B372}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66D7F5-0E73-4445-8616-6BBE4C9B7A26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" activeTab="2" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23205" windowHeight="10800" xr2:uid="{00762EE8-54C7-43BD-89B1-407E3EC593A4}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="10815" xr2:uid="{3B4F8D4A-0A65-49CC-B96E-D6B282C6634A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Relations" sheetId="2" r:id="rId1"/>
     <sheet name="Attributes" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="ER Diagram" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
   <si>
     <t>fname</t>
   </si>
@@ -39,12 +39,6 @@
     <t>start_time</t>
   </si>
   <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>is_available</t>
-  </si>
-  <si>
     <t>pk</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Nurse Specialty Table</t>
   </si>
   <si>
-    <t>date_available</t>
-  </si>
-  <si>
     <t>specialty_name</t>
   </si>
   <si>
@@ -414,18 +405,12 @@
     <t>appointment_pid</t>
   </si>
   <si>
-    <t>Reference Patient - patient_pid</t>
-  </si>
-  <si>
     <t>Reference Doctor - doctor_pid</t>
   </si>
   <si>
     <t>Reference Nurse - nurse_pid</t>
   </si>
   <si>
-    <t>Reference MedicalProcedure - procedure_pid</t>
-  </si>
-  <si>
     <t>Reference AppointmentStatus - appointment_status_pid</t>
   </si>
   <si>
@@ -469,6 +454,108 @@
   </si>
   <si>
     <t>Appt Status Table</t>
+  </si>
+  <si>
+    <t>Is Available Table</t>
+  </si>
+  <si>
+    <t>is_available_pid</t>
+  </si>
+  <si>
+    <t>is_available_val</t>
+  </si>
+  <si>
+    <t>doctor_id</t>
+  </si>
+  <si>
+    <t>nurse_id</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>med_proc_id</t>
+  </si>
+  <si>
+    <t>appt_status_id</t>
+  </si>
+  <si>
+    <t>Day of the Week Table</t>
+  </si>
+  <si>
+    <t>day_of_week_id</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Start Time Table</t>
+  </si>
+  <si>
+    <t>8AM</t>
+  </si>
+  <si>
+    <t>9AM</t>
+  </si>
+  <si>
+    <t>10AM</t>
+  </si>
+  <si>
+    <t>11AM</t>
+  </si>
+  <si>
+    <t>12PM</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>3PM</t>
+  </si>
+  <si>
+    <t>4PM</t>
+  </si>
+  <si>
+    <t>is_available_id</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Reference Is Available - is_available_val</t>
+  </si>
+  <si>
+    <t>Reference Patient - patient_id</t>
+  </si>
+  <si>
+    <t>Reference Nurse Availability - nurse_availability_id</t>
+  </si>
+  <si>
+    <t>Reference Doctor Availability - doctor_availability_id</t>
+  </si>
+  <si>
+    <t>Reference Procedure - procedure_id</t>
+  </si>
+  <si>
+    <t>is_available_val_pid</t>
   </si>
 </sst>
 </file>
@@ -492,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +592,9 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkGrid"/>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -992,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,32 +1141,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,24 +1158,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1136,22 +1188,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2056,15 +2210,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219541</xdr:colOff>
+      <xdr:colOff>258966</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>55650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666769</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>191947</xdr:rowOff>
+      <xdr:colOff>706194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2079,8 +2233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219541" y="2047875"/>
-          <a:ext cx="7082978" cy="1922322"/>
+          <a:off x="258966" y="2009496"/>
+          <a:ext cx="7102516" cy="1902784"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4505,6 +4659,2416 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>337387</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11514</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Freeform: Shape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47194B-916C-44E9-B795-00644F59C0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="337387" y="510441"/>
+          <a:ext cx="14352396" cy="4264269"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 14341929 w 14341929"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 4286250"/>
+            <a:gd name="connsiteX1" fmla="*/ 14124215 w 14341929"/>
+            <a:gd name="connsiteY1" fmla="*/ 27215 h 4286250"/>
+            <a:gd name="connsiteX2" fmla="*/ 14083393 w 14341929"/>
+            <a:gd name="connsiteY2" fmla="*/ 40822 h 4286250"/>
+            <a:gd name="connsiteX3" fmla="*/ 13852072 w 14341929"/>
+            <a:gd name="connsiteY3" fmla="*/ 40822 h 4286250"/>
+            <a:gd name="connsiteX4" fmla="*/ 13797643 w 14341929"/>
+            <a:gd name="connsiteY4" fmla="*/ 108857 h 4286250"/>
+            <a:gd name="connsiteX5" fmla="*/ 13770429 w 14341929"/>
+            <a:gd name="connsiteY5" fmla="*/ 299357 h 4286250"/>
+            <a:gd name="connsiteX6" fmla="*/ 13743215 w 14341929"/>
+            <a:gd name="connsiteY6" fmla="*/ 544286 h 4286250"/>
+            <a:gd name="connsiteX7" fmla="*/ 13756822 w 14341929"/>
+            <a:gd name="connsiteY7" fmla="*/ 775607 h 4286250"/>
+            <a:gd name="connsiteX8" fmla="*/ 13729607 w 14341929"/>
+            <a:gd name="connsiteY8" fmla="*/ 1129393 h 4286250"/>
+            <a:gd name="connsiteX9" fmla="*/ 13743215 w 14341929"/>
+            <a:gd name="connsiteY9" fmla="*/ 1238250 h 4286250"/>
+            <a:gd name="connsiteX10" fmla="*/ 13756822 w 14341929"/>
+            <a:gd name="connsiteY10" fmla="*/ 1279072 h 4286250"/>
+            <a:gd name="connsiteX11" fmla="*/ 13770429 w 14341929"/>
+            <a:gd name="connsiteY11" fmla="*/ 1415143 h 4286250"/>
+            <a:gd name="connsiteX12" fmla="*/ 13824857 w 14341929"/>
+            <a:gd name="connsiteY12" fmla="*/ 1551215 h 4286250"/>
+            <a:gd name="connsiteX13" fmla="*/ 13852072 w 14341929"/>
+            <a:gd name="connsiteY13" fmla="*/ 1578429 h 4286250"/>
+            <a:gd name="connsiteX14" fmla="*/ 13879286 w 14341929"/>
+            <a:gd name="connsiteY14" fmla="*/ 1660072 h 4286250"/>
+            <a:gd name="connsiteX15" fmla="*/ 13892893 w 14341929"/>
+            <a:gd name="connsiteY15" fmla="*/ 1700893 h 4286250"/>
+            <a:gd name="connsiteX16" fmla="*/ 13879286 w 14341929"/>
+            <a:gd name="connsiteY16" fmla="*/ 1755322 h 4286250"/>
+            <a:gd name="connsiteX17" fmla="*/ 13824857 w 14341929"/>
+            <a:gd name="connsiteY17" fmla="*/ 1823357 h 4286250"/>
+            <a:gd name="connsiteX18" fmla="*/ 13797643 w 14341929"/>
+            <a:gd name="connsiteY18" fmla="*/ 1877786 h 4286250"/>
+            <a:gd name="connsiteX19" fmla="*/ 13770429 w 14341929"/>
+            <a:gd name="connsiteY19" fmla="*/ 1918607 h 4286250"/>
+            <a:gd name="connsiteX20" fmla="*/ 13756822 w 14341929"/>
+            <a:gd name="connsiteY20" fmla="*/ 1973036 h 4286250"/>
+            <a:gd name="connsiteX21" fmla="*/ 13743215 w 14341929"/>
+            <a:gd name="connsiteY21" fmla="*/ 2013857 h 4286250"/>
+            <a:gd name="connsiteX22" fmla="*/ 13770429 w 14341929"/>
+            <a:gd name="connsiteY22" fmla="*/ 2476500 h 4286250"/>
+            <a:gd name="connsiteX23" fmla="*/ 13797643 w 14341929"/>
+            <a:gd name="connsiteY23" fmla="*/ 2884715 h 4286250"/>
+            <a:gd name="connsiteX24" fmla="*/ 13811250 w 14341929"/>
+            <a:gd name="connsiteY24" fmla="*/ 3265715 h 4286250"/>
+            <a:gd name="connsiteX25" fmla="*/ 13824857 w 14341929"/>
+            <a:gd name="connsiteY25" fmla="*/ 3388179 h 4286250"/>
+            <a:gd name="connsiteX26" fmla="*/ 13838465 w 14341929"/>
+            <a:gd name="connsiteY26" fmla="*/ 3592286 h 4286250"/>
+            <a:gd name="connsiteX27" fmla="*/ 13824857 w 14341929"/>
+            <a:gd name="connsiteY27" fmla="*/ 3918857 h 4286250"/>
+            <a:gd name="connsiteX28" fmla="*/ 13797643 w 14341929"/>
+            <a:gd name="connsiteY28" fmla="*/ 4000500 h 4286250"/>
+            <a:gd name="connsiteX29" fmla="*/ 13784036 w 14341929"/>
+            <a:gd name="connsiteY29" fmla="*/ 4041322 h 4286250"/>
+            <a:gd name="connsiteX30" fmla="*/ 13729607 w 14341929"/>
+            <a:gd name="connsiteY30" fmla="*/ 4136572 h 4286250"/>
+            <a:gd name="connsiteX31" fmla="*/ 13716000 w 14341929"/>
+            <a:gd name="connsiteY31" fmla="*/ 4177393 h 4286250"/>
+            <a:gd name="connsiteX32" fmla="*/ 13675179 w 14341929"/>
+            <a:gd name="connsiteY32" fmla="*/ 4204607 h 4286250"/>
+            <a:gd name="connsiteX33" fmla="*/ 13647965 w 14341929"/>
+            <a:gd name="connsiteY33" fmla="*/ 4231822 h 4286250"/>
+            <a:gd name="connsiteX34" fmla="*/ 13511893 w 14341929"/>
+            <a:gd name="connsiteY34" fmla="*/ 4272643 h 4286250"/>
+            <a:gd name="connsiteX35" fmla="*/ 13471072 w 14341929"/>
+            <a:gd name="connsiteY35" fmla="*/ 4286250 h 4286250"/>
+            <a:gd name="connsiteX36" fmla="*/ 13185322 w 14341929"/>
+            <a:gd name="connsiteY36" fmla="*/ 4272643 h 4286250"/>
+            <a:gd name="connsiteX37" fmla="*/ 13144500 w 14341929"/>
+            <a:gd name="connsiteY37" fmla="*/ 4259036 h 4286250"/>
+            <a:gd name="connsiteX38" fmla="*/ 13062857 w 14341929"/>
+            <a:gd name="connsiteY38" fmla="*/ 4245429 h 4286250"/>
+            <a:gd name="connsiteX39" fmla="*/ 13022036 w 14341929"/>
+            <a:gd name="connsiteY39" fmla="*/ 4231822 h 4286250"/>
+            <a:gd name="connsiteX40" fmla="*/ 12613822 w 14341929"/>
+            <a:gd name="connsiteY40" fmla="*/ 4204607 h 4286250"/>
+            <a:gd name="connsiteX41" fmla="*/ 11430000 w 14341929"/>
+            <a:gd name="connsiteY41" fmla="*/ 4177393 h 4286250"/>
+            <a:gd name="connsiteX42" fmla="*/ 10926536 w 14341929"/>
+            <a:gd name="connsiteY42" fmla="*/ 4150179 h 4286250"/>
+            <a:gd name="connsiteX43" fmla="*/ 10872107 w 14341929"/>
+            <a:gd name="connsiteY43" fmla="*/ 4136572 h 4286250"/>
+            <a:gd name="connsiteX44" fmla="*/ 10695215 w 14341929"/>
+            <a:gd name="connsiteY44" fmla="*/ 4122965 h 4286250"/>
+            <a:gd name="connsiteX45" fmla="*/ 9647465 w 14341929"/>
+            <a:gd name="connsiteY45" fmla="*/ 4095750 h 4286250"/>
+            <a:gd name="connsiteX46" fmla="*/ 7960179 w 14341929"/>
+            <a:gd name="connsiteY46" fmla="*/ 4095750 h 4286250"/>
+            <a:gd name="connsiteX47" fmla="*/ 7769679 w 14341929"/>
+            <a:gd name="connsiteY47" fmla="*/ 4082143 h 4286250"/>
+            <a:gd name="connsiteX48" fmla="*/ 7538357 w 14341929"/>
+            <a:gd name="connsiteY48" fmla="*/ 4068536 h 4286250"/>
+            <a:gd name="connsiteX49" fmla="*/ 5755822 w 14341929"/>
+            <a:gd name="connsiteY49" fmla="*/ 4095750 h 4286250"/>
+            <a:gd name="connsiteX50" fmla="*/ 5619750 w 14341929"/>
+            <a:gd name="connsiteY50" fmla="*/ 4082143 h 4286250"/>
+            <a:gd name="connsiteX51" fmla="*/ 5565322 w 14341929"/>
+            <a:gd name="connsiteY51" fmla="*/ 4068536 h 4286250"/>
+            <a:gd name="connsiteX52" fmla="*/ 5470072 w 14341929"/>
+            <a:gd name="connsiteY52" fmla="*/ 4054929 h 4286250"/>
+            <a:gd name="connsiteX53" fmla="*/ 5415643 w 14341929"/>
+            <a:gd name="connsiteY53" fmla="*/ 4041322 h 4286250"/>
+            <a:gd name="connsiteX54" fmla="*/ 5102679 w 14341929"/>
+            <a:gd name="connsiteY54" fmla="*/ 4027715 h 4286250"/>
+            <a:gd name="connsiteX55" fmla="*/ 4735286 w 14341929"/>
+            <a:gd name="connsiteY55" fmla="*/ 3973286 h 4286250"/>
+            <a:gd name="connsiteX56" fmla="*/ 4490357 w 14341929"/>
+            <a:gd name="connsiteY56" fmla="*/ 3946072 h 4286250"/>
+            <a:gd name="connsiteX57" fmla="*/ 4272643 w 14341929"/>
+            <a:gd name="connsiteY57" fmla="*/ 3918857 h 4286250"/>
+            <a:gd name="connsiteX58" fmla="*/ 3660322 w 14341929"/>
+            <a:gd name="connsiteY58" fmla="*/ 3932465 h 4286250"/>
+            <a:gd name="connsiteX59" fmla="*/ 3578679 w 14341929"/>
+            <a:gd name="connsiteY59" fmla="*/ 3959679 h 4286250"/>
+            <a:gd name="connsiteX60" fmla="*/ 3415393 w 14341929"/>
+            <a:gd name="connsiteY60" fmla="*/ 3986893 h 4286250"/>
+            <a:gd name="connsiteX61" fmla="*/ 2966357 w 14341929"/>
+            <a:gd name="connsiteY61" fmla="*/ 3973286 h 4286250"/>
+            <a:gd name="connsiteX62" fmla="*/ 2830286 w 14341929"/>
+            <a:gd name="connsiteY62" fmla="*/ 3932465 h 4286250"/>
+            <a:gd name="connsiteX63" fmla="*/ 2694215 w 14341929"/>
+            <a:gd name="connsiteY63" fmla="*/ 3905250 h 4286250"/>
+            <a:gd name="connsiteX64" fmla="*/ 2639786 w 14341929"/>
+            <a:gd name="connsiteY64" fmla="*/ 3878036 h 4286250"/>
+            <a:gd name="connsiteX65" fmla="*/ 2585357 w 14341929"/>
+            <a:gd name="connsiteY65" fmla="*/ 3864429 h 4286250"/>
+            <a:gd name="connsiteX66" fmla="*/ 2503715 w 14341929"/>
+            <a:gd name="connsiteY66" fmla="*/ 3837215 h 4286250"/>
+            <a:gd name="connsiteX67" fmla="*/ 2136322 w 14341929"/>
+            <a:gd name="connsiteY67" fmla="*/ 3796393 h 4286250"/>
+            <a:gd name="connsiteX68" fmla="*/ 1918607 w 14341929"/>
+            <a:gd name="connsiteY68" fmla="*/ 3769179 h 4286250"/>
+            <a:gd name="connsiteX69" fmla="*/ 1809750 w 14341929"/>
+            <a:gd name="connsiteY69" fmla="*/ 3741965 h 4286250"/>
+            <a:gd name="connsiteX70" fmla="*/ 1714500 w 14341929"/>
+            <a:gd name="connsiteY70" fmla="*/ 3728357 h 4286250"/>
+            <a:gd name="connsiteX71" fmla="*/ 1660072 w 14341929"/>
+            <a:gd name="connsiteY71" fmla="*/ 3714750 h 4286250"/>
+            <a:gd name="connsiteX72" fmla="*/ 639536 w 14341929"/>
+            <a:gd name="connsiteY72" fmla="*/ 3701143 h 4286250"/>
+            <a:gd name="connsiteX73" fmla="*/ 517072 w 14341929"/>
+            <a:gd name="connsiteY73" fmla="*/ 3673929 h 4286250"/>
+            <a:gd name="connsiteX74" fmla="*/ 435429 w 14341929"/>
+            <a:gd name="connsiteY74" fmla="*/ 3660322 h 4286250"/>
+            <a:gd name="connsiteX75" fmla="*/ 136072 w 14341929"/>
+            <a:gd name="connsiteY75" fmla="*/ 3646715 h 4286250"/>
+            <a:gd name="connsiteX76" fmla="*/ 40822 w 14341929"/>
+            <a:gd name="connsiteY76" fmla="*/ 3537857 h 4286250"/>
+            <a:gd name="connsiteX77" fmla="*/ 27215 w 14341929"/>
+            <a:gd name="connsiteY77" fmla="*/ 3497036 h 4286250"/>
+            <a:gd name="connsiteX78" fmla="*/ 40822 w 14341929"/>
+            <a:gd name="connsiteY78" fmla="*/ 3388179 h 4286250"/>
+            <a:gd name="connsiteX79" fmla="*/ 68036 w 14341929"/>
+            <a:gd name="connsiteY79" fmla="*/ 3306536 h 4286250"/>
+            <a:gd name="connsiteX80" fmla="*/ 68036 w 14341929"/>
+            <a:gd name="connsiteY80" fmla="*/ 2503715 h 4286250"/>
+            <a:gd name="connsiteX81" fmla="*/ 54429 w 14341929"/>
+            <a:gd name="connsiteY81" fmla="*/ 2462893 h 4286250"/>
+            <a:gd name="connsiteX82" fmla="*/ 40822 w 14341929"/>
+            <a:gd name="connsiteY82" fmla="*/ 2394857 h 4286250"/>
+            <a:gd name="connsiteX83" fmla="*/ 27215 w 14341929"/>
+            <a:gd name="connsiteY83" fmla="*/ 2177143 h 4286250"/>
+            <a:gd name="connsiteX84" fmla="*/ 13607 w 14341929"/>
+            <a:gd name="connsiteY84" fmla="*/ 2136322 h 4286250"/>
+            <a:gd name="connsiteX85" fmla="*/ 0 w 14341929"/>
+            <a:gd name="connsiteY85" fmla="*/ 2041072 h 4286250"/>
+            <a:gd name="connsiteX86" fmla="*/ 13607 w 14341929"/>
+            <a:gd name="connsiteY86" fmla="*/ 1959429 h 4286250"/>
+            <a:gd name="connsiteX87" fmla="*/ 54429 w 14341929"/>
+            <a:gd name="connsiteY87" fmla="*/ 1973036 h 4286250"/>
+            <a:gd name="connsiteX88" fmla="*/ 108857 w 14341929"/>
+            <a:gd name="connsiteY88" fmla="*/ 1986643 h 4286250"/>
+            <a:gd name="connsiteX89" fmla="*/ 149679 w 14341929"/>
+            <a:gd name="connsiteY89" fmla="*/ 2000250 h 4286250"/>
+            <a:gd name="connsiteX90" fmla="*/ 381000 w 14341929"/>
+            <a:gd name="connsiteY90" fmla="*/ 2000250 h 4286250"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX73" y="connsiteY73"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX74" y="connsiteY74"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX75" y="connsiteY75"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX76" y="connsiteY76"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX77" y="connsiteY77"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX78" y="connsiteY78"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX79" y="connsiteY79"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX80" y="connsiteY80"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX81" y="connsiteY81"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX82" y="connsiteY82"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX83" y="connsiteY83"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX84" y="connsiteY84"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX85" y="connsiteY85"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX86" y="connsiteY86"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX87" y="connsiteY87"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX88" y="connsiteY88"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX89" y="connsiteY89"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX90" y="connsiteY90"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="14341929" h="4286250">
+              <a:moveTo>
+                <a:pt x="14341929" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="14299462" y="4719"/>
+                <a:pt x="14172766" y="17505"/>
+                <a:pt x="14124215" y="27215"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14110150" y="30028"/>
+                <a:pt x="14097000" y="36286"/>
+                <a:pt x="14083393" y="40822"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13988146" y="27215"/>
+                <a:pt x="13955917" y="14861"/>
+                <a:pt x="13852072" y="40822"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13836559" y="44700"/>
+                <a:pt x="13802315" y="101849"/>
+                <a:pt x="13797643" y="108857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13768868" y="195185"/>
+                <a:pt x="13782981" y="142455"/>
+                <a:pt x="13770429" y="299357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13752853" y="519057"/>
+                <a:pt x="13773036" y="424998"/>
+                <a:pt x="13743215" y="544286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13747751" y="621393"/>
+                <a:pt x="13756822" y="698367"/>
+                <a:pt x="13756822" y="775607"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13756822" y="985402"/>
+                <a:pt x="13753596" y="985467"/>
+                <a:pt x="13729607" y="1129393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13734143" y="1165679"/>
+                <a:pt x="13736673" y="1202272"/>
+                <a:pt x="13743215" y="1238250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13745781" y="1252362"/>
+                <a:pt x="13754641" y="1264895"/>
+                <a:pt x="13756822" y="1279072"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13763753" y="1324125"/>
+                <a:pt x="13762029" y="1370341"/>
+                <a:pt x="13770429" y="1415143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13776201" y="1445928"/>
+                <a:pt x="13804512" y="1520697"/>
+                <a:pt x="13824857" y="1551215"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13831973" y="1561889"/>
+                <a:pt x="13843000" y="1569358"/>
+                <a:pt x="13852072" y="1578429"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="13879286" y="1660072"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="13892893" y="1700893"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="13888357" y="1719036"/>
+                <a:pt x="13886653" y="1738133"/>
+                <a:pt x="13879286" y="1755322"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13866412" y="1785362"/>
+                <a:pt x="13846804" y="1801411"/>
+                <a:pt x="13824857" y="1823357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13815786" y="1841500"/>
+                <a:pt x="13807707" y="1860174"/>
+                <a:pt x="13797643" y="1877786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13789529" y="1891985"/>
+                <a:pt x="13776871" y="1903576"/>
+                <a:pt x="13770429" y="1918607"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13763062" y="1935796"/>
+                <a:pt x="13761960" y="1955054"/>
+                <a:pt x="13756822" y="1973036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13752882" y="1986827"/>
+                <a:pt x="13747751" y="2000250"/>
+                <a:pt x="13743215" y="2013857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13790562" y="2203249"/>
+                <a:pt x="13750956" y="2028624"/>
+                <a:pt x="13770429" y="2476500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13801590" y="3193207"/>
+                <a:pt x="13766964" y="2240439"/>
+                <a:pt x="13797643" y="2884715"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13803688" y="3011652"/>
+                <a:pt x="13804391" y="3138819"/>
+                <a:pt x="13811250" y="3265715"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13813467" y="3306728"/>
+                <a:pt x="13821446" y="3347248"/>
+                <a:pt x="13824857" y="3388179"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13830520" y="3456130"/>
+                <a:pt x="13833929" y="3524250"/>
+                <a:pt x="13838465" y="3592286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13833929" y="3701143"/>
+                <a:pt x="13835698" y="3810446"/>
+                <a:pt x="13824857" y="3918857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13822003" y="3947401"/>
+                <a:pt x="13806714" y="3973286"/>
+                <a:pt x="13797643" y="4000500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13793107" y="4014107"/>
+                <a:pt x="13790451" y="4028493"/>
+                <a:pt x="13784036" y="4041322"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13749508" y="4110377"/>
+                <a:pt x="13768074" y="4078873"/>
+                <a:pt x="13729607" y="4136572"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13725071" y="4150179"/>
+                <a:pt x="13724960" y="4166193"/>
+                <a:pt x="13716000" y="4177393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13705784" y="4190163"/>
+                <a:pt x="13687949" y="4194391"/>
+                <a:pt x="13675179" y="4204607"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13665161" y="4212621"/>
+                <a:pt x="13659440" y="4226085"/>
+                <a:pt x="13647965" y="4231822"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13604851" y="4253379"/>
+                <a:pt x="13557468" y="4259622"/>
+                <a:pt x="13511893" y="4272643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13498102" y="4276583"/>
+                <a:pt x="13484679" y="4281714"/>
+                <a:pt x="13471072" y="4286250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13375822" y="4281714"/>
+                <a:pt x="13280351" y="4280562"/>
+                <a:pt x="13185322" y="4272643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13171028" y="4271452"/>
+                <a:pt x="13158502" y="4262147"/>
+                <a:pt x="13144500" y="4259036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13117567" y="4253051"/>
+                <a:pt x="13090071" y="4249965"/>
+                <a:pt x="13062857" y="4245429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13049250" y="4240893"/>
+                <a:pt x="13035827" y="4235762"/>
+                <a:pt x="13022036" y="4231822"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12879108" y="4190986"/>
+                <a:pt x="12822264" y="4210141"/>
+                <a:pt x="12613822" y="4204607"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="11430000" y="4177393"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="11189566" y="4137321"/>
+                <a:pt x="11478039" y="4181693"/>
+                <a:pt x="10926536" y="4150179"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10907865" y="4149112"/>
+                <a:pt x="10890680" y="4138757"/>
+                <a:pt x="10872107" y="4136572"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10813374" y="4129662"/>
+                <a:pt x="10754289" y="4125713"/>
+                <a:pt x="10695215" y="4122965"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10398322" y="4109156"/>
+                <a:pt x="9915011" y="4101442"/>
+                <a:pt x="9647465" y="4095750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8791825" y="4109331"/>
+                <a:pt x="8806504" y="4118318"/>
+                <a:pt x="7960179" y="4095750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7896540" y="4094053"/>
+                <a:pt x="7833209" y="4086242"/>
+                <a:pt x="7769679" y="4082143"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="7538357" y="4068536"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6318480" y="4121574"/>
+                <a:pt x="6912684" y="4114409"/>
+                <a:pt x="5755822" y="4095750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5710465" y="4091214"/>
+                <a:pt x="5664875" y="4088589"/>
+                <a:pt x="5619750" y="4082143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5601237" y="4079498"/>
+                <a:pt x="5583721" y="4071881"/>
+                <a:pt x="5565322" y="4068536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5533767" y="4062799"/>
+                <a:pt x="5501627" y="4060666"/>
+                <a:pt x="5470072" y="4054929"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5451672" y="4051584"/>
+                <a:pt x="5434293" y="4042703"/>
+                <a:pt x="5415643" y="4041322"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5311508" y="4033608"/>
+                <a:pt x="5207000" y="4032251"/>
+                <a:pt x="5102679" y="4027715"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4537508" y="3964917"/>
+                <a:pt x="5079805" y="4034083"/>
+                <a:pt x="4735286" y="3973286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4682350" y="3963944"/>
+                <a:pt x="4536725" y="3950953"/>
+                <a:pt x="4490357" y="3946072"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4360020" y="3932352"/>
+                <a:pt x="4389809" y="3935596"/>
+                <a:pt x="4272643" y="3918857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4068536" y="3923393"/>
+                <a:pt x="3864127" y="3920476"/>
+                <a:pt x="3660322" y="3932465"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3631685" y="3934150"/>
+                <a:pt x="3606682" y="3953456"/>
+                <a:pt x="3578679" y="3959679"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3524814" y="3971649"/>
+                <a:pt x="3469822" y="3977822"/>
+                <a:pt x="3415393" y="3986893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3265714" y="3982357"/>
+                <a:pt x="3115886" y="3981369"/>
+                <a:pt x="2966357" y="3973286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2938804" y="3971797"/>
+                <a:pt x="2845756" y="3936332"/>
+                <a:pt x="2830286" y="3932465"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2783261" y="3920709"/>
+                <a:pt x="2739440" y="3922209"/>
+                <a:pt x="2694215" y="3905250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2675222" y="3898128"/>
+                <a:pt x="2658779" y="3885158"/>
+                <a:pt x="2639786" y="3878036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2622275" y="3871470"/>
+                <a:pt x="2603270" y="3869803"/>
+                <a:pt x="2585357" y="3864429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2557881" y="3856186"/>
+                <a:pt x="2531545" y="3844173"/>
+                <a:pt x="2503715" y="3837215"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2311136" y="3789069"/>
+                <a:pt x="2432208" y="3811966"/>
+                <a:pt x="2136322" y="3796393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1892313" y="3747592"/>
+                <a:pt x="2366092" y="3839834"/>
+                <a:pt x="1918607" y="3769179"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1881662" y="3763346"/>
+                <a:pt x="1846426" y="3749300"/>
+                <a:pt x="1809750" y="3741965"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1778300" y="3735675"/>
+                <a:pt x="1746055" y="3734094"/>
+                <a:pt x="1714500" y="3728357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1696101" y="3725012"/>
+                <a:pt x="1678767" y="3715223"/>
+                <a:pt x="1660072" y="3714750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1319972" y="3706140"/>
+                <a:pt x="979715" y="3705679"/>
+                <a:pt x="639536" y="3701143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="581297" y="3686584"/>
+                <a:pt x="580410" y="3685445"/>
+                <a:pt x="517072" y="3673929"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="489927" y="3668994"/>
+                <a:pt x="462949" y="3662288"/>
+                <a:pt x="435429" y="3660322"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="335794" y="3653205"/>
+                <a:pt x="235858" y="3651251"/>
+                <a:pt x="136072" y="3646715"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="100600" y="3611243"/>
+                <a:pt x="63325" y="3582864"/>
+                <a:pt x="40822" y="3537857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="34408" y="3525028"/>
+                <a:pt x="31751" y="3510643"/>
+                <a:pt x="27215" y="3497036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="31751" y="3460750"/>
+                <a:pt x="33160" y="3423935"/>
+                <a:pt x="40822" y="3388179"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="46833" y="3360129"/>
+                <a:pt x="68036" y="3306536"/>
+                <a:pt x="68036" y="3306536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="113631" y="2987369"/>
+                <a:pt x="92360" y="3172646"/>
+                <a:pt x="68036" y="2503715"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="67515" y="2489381"/>
+                <a:pt x="57908" y="2476808"/>
+                <a:pt x="54429" y="2462893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="48820" y="2440456"/>
+                <a:pt x="45358" y="2417536"/>
+                <a:pt x="40822" y="2394857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="36286" y="2322286"/>
+                <a:pt x="34827" y="2249456"/>
+                <a:pt x="27215" y="2177143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25713" y="2162879"/>
+                <a:pt x="16420" y="2150387"/>
+                <a:pt x="13607" y="2136322"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7317" y="2104873"/>
+                <a:pt x="4536" y="2072822"/>
+                <a:pt x="0" y="2041072"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4536" y="2013858"/>
+                <a:pt x="-3628" y="1980973"/>
+                <a:pt x="13607" y="1959429"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22567" y="1948229"/>
+                <a:pt x="40638" y="1969096"/>
+                <a:pt x="54429" y="1973036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72411" y="1978174"/>
+                <a:pt x="90875" y="1981505"/>
+                <a:pt x="108857" y="1986643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="122648" y="1990583"/>
+                <a:pt x="135354" y="1999534"/>
+                <a:pt x="149679" y="2000250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="226690" y="2004100"/>
+                <a:pt x="303893" y="2000250"/>
+                <a:pt x="381000" y="2000250"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488807</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Freeform: Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3714A302-92D1-4A1C-8B6D-AE51C19CA792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488807" y="1963616"/>
+          <a:ext cx="14176553" cy="4117731"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 14166086 w 14166086"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 3349865"/>
+            <a:gd name="connsiteX1" fmla="*/ 14098050 w 14166086"/>
+            <a:gd name="connsiteY1" fmla="*/ 40821 h 3349865"/>
+            <a:gd name="connsiteX2" fmla="*/ 14057229 w 14166086"/>
+            <a:gd name="connsiteY2" fmla="*/ 68036 h 3349865"/>
+            <a:gd name="connsiteX3" fmla="*/ 13921157 w 14166086"/>
+            <a:gd name="connsiteY3" fmla="*/ 95250 h 3349865"/>
+            <a:gd name="connsiteX4" fmla="*/ 13866729 w 14166086"/>
+            <a:gd name="connsiteY4" fmla="*/ 122464 h 3349865"/>
+            <a:gd name="connsiteX5" fmla="*/ 13812300 w 14166086"/>
+            <a:gd name="connsiteY5" fmla="*/ 176893 h 3349865"/>
+            <a:gd name="connsiteX6" fmla="*/ 13785086 w 14166086"/>
+            <a:gd name="connsiteY6" fmla="*/ 258536 h 3349865"/>
+            <a:gd name="connsiteX7" fmla="*/ 13798693 w 14166086"/>
+            <a:gd name="connsiteY7" fmla="*/ 367393 h 3349865"/>
+            <a:gd name="connsiteX8" fmla="*/ 13812300 w 14166086"/>
+            <a:gd name="connsiteY8" fmla="*/ 435428 h 3349865"/>
+            <a:gd name="connsiteX9" fmla="*/ 13825907 w 14166086"/>
+            <a:gd name="connsiteY9" fmla="*/ 530678 h 3349865"/>
+            <a:gd name="connsiteX10" fmla="*/ 13812300 w 14166086"/>
+            <a:gd name="connsiteY10" fmla="*/ 966107 h 3349865"/>
+            <a:gd name="connsiteX11" fmla="*/ 13798693 w 14166086"/>
+            <a:gd name="connsiteY11" fmla="*/ 1020536 h 3349865"/>
+            <a:gd name="connsiteX12" fmla="*/ 13785086 w 14166086"/>
+            <a:gd name="connsiteY12" fmla="*/ 1102178 h 3349865"/>
+            <a:gd name="connsiteX13" fmla="*/ 13812300 w 14166086"/>
+            <a:gd name="connsiteY13" fmla="*/ 1306286 h 3349865"/>
+            <a:gd name="connsiteX14" fmla="*/ 13825907 w 14166086"/>
+            <a:gd name="connsiteY14" fmla="*/ 1469571 h 3349865"/>
+            <a:gd name="connsiteX15" fmla="*/ 13839514 w 14166086"/>
+            <a:gd name="connsiteY15" fmla="*/ 1510393 h 3349865"/>
+            <a:gd name="connsiteX16" fmla="*/ 13866729 w 14166086"/>
+            <a:gd name="connsiteY16" fmla="*/ 1632857 h 3349865"/>
+            <a:gd name="connsiteX17" fmla="*/ 13853122 w 14166086"/>
+            <a:gd name="connsiteY17" fmla="*/ 2354036 h 3349865"/>
+            <a:gd name="connsiteX18" fmla="*/ 13839514 w 14166086"/>
+            <a:gd name="connsiteY18" fmla="*/ 2422071 h 3349865"/>
+            <a:gd name="connsiteX19" fmla="*/ 13812300 w 14166086"/>
+            <a:gd name="connsiteY19" fmla="*/ 2503714 h 3349865"/>
+            <a:gd name="connsiteX20" fmla="*/ 13798693 w 14166086"/>
+            <a:gd name="connsiteY20" fmla="*/ 2544536 h 3349865"/>
+            <a:gd name="connsiteX21" fmla="*/ 13785086 w 14166086"/>
+            <a:gd name="connsiteY21" fmla="*/ 2585357 h 3349865"/>
+            <a:gd name="connsiteX22" fmla="*/ 13744264 w 14166086"/>
+            <a:gd name="connsiteY22" fmla="*/ 2667000 h 3349865"/>
+            <a:gd name="connsiteX23" fmla="*/ 13717050 w 14166086"/>
+            <a:gd name="connsiteY23" fmla="*/ 2721428 h 3349865"/>
+            <a:gd name="connsiteX24" fmla="*/ 13689836 w 14166086"/>
+            <a:gd name="connsiteY24" fmla="*/ 2789464 h 3349865"/>
+            <a:gd name="connsiteX25" fmla="*/ 13649014 w 14166086"/>
+            <a:gd name="connsiteY25" fmla="*/ 2843893 h 3349865"/>
+            <a:gd name="connsiteX26" fmla="*/ 13621800 w 14166086"/>
+            <a:gd name="connsiteY26" fmla="*/ 2884714 h 3349865"/>
+            <a:gd name="connsiteX27" fmla="*/ 13580979 w 14166086"/>
+            <a:gd name="connsiteY27" fmla="*/ 2911928 h 3349865"/>
+            <a:gd name="connsiteX28" fmla="*/ 13553764 w 14166086"/>
+            <a:gd name="connsiteY28" fmla="*/ 2939143 h 3349865"/>
+            <a:gd name="connsiteX29" fmla="*/ 13499336 w 14166086"/>
+            <a:gd name="connsiteY29" fmla="*/ 2966357 h 3349865"/>
+            <a:gd name="connsiteX30" fmla="*/ 13363264 w 14166086"/>
+            <a:gd name="connsiteY30" fmla="*/ 3020786 h 3349865"/>
+            <a:gd name="connsiteX31" fmla="*/ 13159157 w 14166086"/>
+            <a:gd name="connsiteY31" fmla="*/ 3007178 h 3349865"/>
+            <a:gd name="connsiteX32" fmla="*/ 12968657 w 14166086"/>
+            <a:gd name="connsiteY32" fmla="*/ 2979964 h 3349865"/>
+            <a:gd name="connsiteX33" fmla="*/ 12873407 w 14166086"/>
+            <a:gd name="connsiteY33" fmla="*/ 2952750 h 3349865"/>
+            <a:gd name="connsiteX34" fmla="*/ 12628479 w 14166086"/>
+            <a:gd name="connsiteY34" fmla="*/ 2966357 h 3349865"/>
+            <a:gd name="connsiteX35" fmla="*/ 12383550 w 14166086"/>
+            <a:gd name="connsiteY35" fmla="*/ 2993571 h 3349865"/>
+            <a:gd name="connsiteX36" fmla="*/ 12206657 w 14166086"/>
+            <a:gd name="connsiteY36" fmla="*/ 3034393 h 3349865"/>
+            <a:gd name="connsiteX37" fmla="*/ 12152229 w 14166086"/>
+            <a:gd name="connsiteY37" fmla="*/ 3048000 h 3349865"/>
+            <a:gd name="connsiteX38" fmla="*/ 12016157 w 14166086"/>
+            <a:gd name="connsiteY38" fmla="*/ 3075214 h 3349865"/>
+            <a:gd name="connsiteX39" fmla="*/ 11948122 w 14166086"/>
+            <a:gd name="connsiteY39" fmla="*/ 3088821 h 3349865"/>
+            <a:gd name="connsiteX40" fmla="*/ 11880086 w 14166086"/>
+            <a:gd name="connsiteY40" fmla="*/ 3102428 h 3349865"/>
+            <a:gd name="connsiteX41" fmla="*/ 11771229 w 14166086"/>
+            <a:gd name="connsiteY41" fmla="*/ 3129643 h 3349865"/>
+            <a:gd name="connsiteX42" fmla="*/ 11730407 w 14166086"/>
+            <a:gd name="connsiteY42" fmla="*/ 3143250 h 3349865"/>
+            <a:gd name="connsiteX43" fmla="*/ 11675979 w 14166086"/>
+            <a:gd name="connsiteY43" fmla="*/ 3156857 h 3349865"/>
+            <a:gd name="connsiteX44" fmla="*/ 11594336 w 14166086"/>
+            <a:gd name="connsiteY44" fmla="*/ 3184071 h 3349865"/>
+            <a:gd name="connsiteX45" fmla="*/ 11499086 w 14166086"/>
+            <a:gd name="connsiteY45" fmla="*/ 3197678 h 3349865"/>
+            <a:gd name="connsiteX46" fmla="*/ 11403836 w 14166086"/>
+            <a:gd name="connsiteY46" fmla="*/ 3238500 h 3349865"/>
+            <a:gd name="connsiteX47" fmla="*/ 11349407 w 14166086"/>
+            <a:gd name="connsiteY47" fmla="*/ 3265714 h 3349865"/>
+            <a:gd name="connsiteX48" fmla="*/ 11294979 w 14166086"/>
+            <a:gd name="connsiteY48" fmla="*/ 3279321 h 3349865"/>
+            <a:gd name="connsiteX49" fmla="*/ 11172514 w 14166086"/>
+            <a:gd name="connsiteY49" fmla="*/ 3306536 h 3349865"/>
+            <a:gd name="connsiteX50" fmla="*/ 11118086 w 14166086"/>
+            <a:gd name="connsiteY50" fmla="*/ 3333750 h 3349865"/>
+            <a:gd name="connsiteX51" fmla="*/ 10546586 w 14166086"/>
+            <a:gd name="connsiteY51" fmla="*/ 3333750 h 3349865"/>
+            <a:gd name="connsiteX52" fmla="*/ 10478550 w 14166086"/>
+            <a:gd name="connsiteY52" fmla="*/ 3306536 h 3349865"/>
+            <a:gd name="connsiteX53" fmla="*/ 10342479 w 14166086"/>
+            <a:gd name="connsiteY53" fmla="*/ 3279321 h 3349865"/>
+            <a:gd name="connsiteX54" fmla="*/ 10206407 w 14166086"/>
+            <a:gd name="connsiteY54" fmla="*/ 3224893 h 3349865"/>
+            <a:gd name="connsiteX55" fmla="*/ 10138372 w 14166086"/>
+            <a:gd name="connsiteY55" fmla="*/ 3197678 h 3349865"/>
+            <a:gd name="connsiteX56" fmla="*/ 10043122 w 14166086"/>
+            <a:gd name="connsiteY56" fmla="*/ 3170464 h 3349865"/>
+            <a:gd name="connsiteX57" fmla="*/ 10015907 w 14166086"/>
+            <a:gd name="connsiteY57" fmla="*/ 3143250 h 3349865"/>
+            <a:gd name="connsiteX58" fmla="*/ 9907050 w 14166086"/>
+            <a:gd name="connsiteY58" fmla="*/ 3116036 h 3349865"/>
+            <a:gd name="connsiteX59" fmla="*/ 9757372 w 14166086"/>
+            <a:gd name="connsiteY59" fmla="*/ 3075214 h 3349865"/>
+            <a:gd name="connsiteX60" fmla="*/ 9675729 w 14166086"/>
+            <a:gd name="connsiteY60" fmla="*/ 3048000 h 3349865"/>
+            <a:gd name="connsiteX61" fmla="*/ 9539657 w 14166086"/>
+            <a:gd name="connsiteY61" fmla="*/ 3020786 h 3349865"/>
+            <a:gd name="connsiteX62" fmla="*/ 9498836 w 14166086"/>
+            <a:gd name="connsiteY62" fmla="*/ 3007178 h 3349865"/>
+            <a:gd name="connsiteX63" fmla="*/ 9008979 w 14166086"/>
+            <a:gd name="connsiteY63" fmla="*/ 2979964 h 3349865"/>
+            <a:gd name="connsiteX64" fmla="*/ 8723229 w 14166086"/>
+            <a:gd name="connsiteY64" fmla="*/ 2966357 h 3349865"/>
+            <a:gd name="connsiteX65" fmla="*/ 8668800 w 14166086"/>
+            <a:gd name="connsiteY65" fmla="*/ 2952750 h 3349865"/>
+            <a:gd name="connsiteX66" fmla="*/ 8600764 w 14166086"/>
+            <a:gd name="connsiteY66" fmla="*/ 2939143 h 3349865"/>
+            <a:gd name="connsiteX67" fmla="*/ 8491907 w 14166086"/>
+            <a:gd name="connsiteY67" fmla="*/ 2911928 h 3349865"/>
+            <a:gd name="connsiteX68" fmla="*/ 8451086 w 14166086"/>
+            <a:gd name="connsiteY68" fmla="*/ 2898321 h 3349865"/>
+            <a:gd name="connsiteX69" fmla="*/ 8383050 w 14166086"/>
+            <a:gd name="connsiteY69" fmla="*/ 2884714 h 3349865"/>
+            <a:gd name="connsiteX70" fmla="*/ 8287800 w 14166086"/>
+            <a:gd name="connsiteY70" fmla="*/ 2843893 h 3349865"/>
+            <a:gd name="connsiteX71" fmla="*/ 8233372 w 14166086"/>
+            <a:gd name="connsiteY71" fmla="*/ 2830286 h 3349865"/>
+            <a:gd name="connsiteX72" fmla="*/ 8124514 w 14166086"/>
+            <a:gd name="connsiteY72" fmla="*/ 2789464 h 3349865"/>
+            <a:gd name="connsiteX73" fmla="*/ 8070086 w 14166086"/>
+            <a:gd name="connsiteY73" fmla="*/ 2762250 h 3349865"/>
+            <a:gd name="connsiteX74" fmla="*/ 7974836 w 14166086"/>
+            <a:gd name="connsiteY74" fmla="*/ 2748643 h 3349865"/>
+            <a:gd name="connsiteX75" fmla="*/ 7893193 w 14166086"/>
+            <a:gd name="connsiteY75" fmla="*/ 2721428 h 3349865"/>
+            <a:gd name="connsiteX76" fmla="*/ 7770729 w 14166086"/>
+            <a:gd name="connsiteY76" fmla="*/ 2694214 h 3349865"/>
+            <a:gd name="connsiteX77" fmla="*/ 7321693 w 14166086"/>
+            <a:gd name="connsiteY77" fmla="*/ 2721428 h 3349865"/>
+            <a:gd name="connsiteX78" fmla="*/ 7226443 w 14166086"/>
+            <a:gd name="connsiteY78" fmla="*/ 2735036 h 3349865"/>
+            <a:gd name="connsiteX79" fmla="*/ 7185622 w 14166086"/>
+            <a:gd name="connsiteY79" fmla="*/ 2748643 h 3349865"/>
+            <a:gd name="connsiteX80" fmla="*/ 7103979 w 14166086"/>
+            <a:gd name="connsiteY80" fmla="*/ 2762250 h 3349865"/>
+            <a:gd name="connsiteX81" fmla="*/ 7049550 w 14166086"/>
+            <a:gd name="connsiteY81" fmla="*/ 2789464 h 3349865"/>
+            <a:gd name="connsiteX82" fmla="*/ 6995122 w 14166086"/>
+            <a:gd name="connsiteY82" fmla="*/ 2803071 h 3349865"/>
+            <a:gd name="connsiteX83" fmla="*/ 6954300 w 14166086"/>
+            <a:gd name="connsiteY83" fmla="*/ 2830286 h 3349865"/>
+            <a:gd name="connsiteX84" fmla="*/ 6845443 w 14166086"/>
+            <a:gd name="connsiteY84" fmla="*/ 2857500 h 3349865"/>
+            <a:gd name="connsiteX85" fmla="*/ 6763800 w 14166086"/>
+            <a:gd name="connsiteY85" fmla="*/ 2884714 h 3349865"/>
+            <a:gd name="connsiteX86" fmla="*/ 5838514 w 14166086"/>
+            <a:gd name="connsiteY86" fmla="*/ 2925536 h 3349865"/>
+            <a:gd name="connsiteX87" fmla="*/ 5498336 w 14166086"/>
+            <a:gd name="connsiteY87" fmla="*/ 2952750 h 3349865"/>
+            <a:gd name="connsiteX88" fmla="*/ 5212586 w 14166086"/>
+            <a:gd name="connsiteY88" fmla="*/ 2925536 h 3349865"/>
+            <a:gd name="connsiteX89" fmla="*/ 5117336 w 14166086"/>
+            <a:gd name="connsiteY89" fmla="*/ 2911928 h 3349865"/>
+            <a:gd name="connsiteX90" fmla="*/ 4831586 w 14166086"/>
+            <a:gd name="connsiteY90" fmla="*/ 2884714 h 3349865"/>
+            <a:gd name="connsiteX91" fmla="*/ 4613872 w 14166086"/>
+            <a:gd name="connsiteY91" fmla="*/ 2857500 h 3349865"/>
+            <a:gd name="connsiteX92" fmla="*/ 3674979 w 14166086"/>
+            <a:gd name="connsiteY92" fmla="*/ 2871107 h 3349865"/>
+            <a:gd name="connsiteX93" fmla="*/ 3198729 w 14166086"/>
+            <a:gd name="connsiteY93" fmla="*/ 2857500 h 3349865"/>
+            <a:gd name="connsiteX94" fmla="*/ 2858550 w 14166086"/>
+            <a:gd name="connsiteY94" fmla="*/ 2871107 h 3349865"/>
+            <a:gd name="connsiteX95" fmla="*/ 2395907 w 14166086"/>
+            <a:gd name="connsiteY95" fmla="*/ 2857500 h 3349865"/>
+            <a:gd name="connsiteX96" fmla="*/ 2287050 w 14166086"/>
+            <a:gd name="connsiteY96" fmla="*/ 2843893 h 3349865"/>
+            <a:gd name="connsiteX97" fmla="*/ 2246229 w 14166086"/>
+            <a:gd name="connsiteY97" fmla="*/ 2816678 h 3349865"/>
+            <a:gd name="connsiteX98" fmla="*/ 2096550 w 14166086"/>
+            <a:gd name="connsiteY98" fmla="*/ 2789464 h 3349865"/>
+            <a:gd name="connsiteX99" fmla="*/ 2014907 w 14166086"/>
+            <a:gd name="connsiteY99" fmla="*/ 2762250 h 3349865"/>
+            <a:gd name="connsiteX100" fmla="*/ 1974086 w 14166086"/>
+            <a:gd name="connsiteY100" fmla="*/ 2748643 h 3349865"/>
+            <a:gd name="connsiteX101" fmla="*/ 1878836 w 14166086"/>
+            <a:gd name="connsiteY101" fmla="*/ 2721428 h 3349865"/>
+            <a:gd name="connsiteX102" fmla="*/ 1783586 w 14166086"/>
+            <a:gd name="connsiteY102" fmla="*/ 2694214 h 3349865"/>
+            <a:gd name="connsiteX103" fmla="*/ 1293729 w 14166086"/>
+            <a:gd name="connsiteY103" fmla="*/ 2707821 h 3349865"/>
+            <a:gd name="connsiteX104" fmla="*/ 1157657 w 14166086"/>
+            <a:gd name="connsiteY104" fmla="*/ 2680607 h 3349865"/>
+            <a:gd name="connsiteX105" fmla="*/ 1116836 w 14166086"/>
+            <a:gd name="connsiteY105" fmla="*/ 2653393 h 3349865"/>
+            <a:gd name="connsiteX106" fmla="*/ 994372 w 14166086"/>
+            <a:gd name="connsiteY106" fmla="*/ 2598964 h 3349865"/>
+            <a:gd name="connsiteX107" fmla="*/ 926336 w 14166086"/>
+            <a:gd name="connsiteY107" fmla="*/ 2558143 h 3349865"/>
+            <a:gd name="connsiteX108" fmla="*/ 844693 w 14166086"/>
+            <a:gd name="connsiteY108" fmla="*/ 2517321 h 3349865"/>
+            <a:gd name="connsiteX109" fmla="*/ 803872 w 14166086"/>
+            <a:gd name="connsiteY109" fmla="*/ 2490107 h 3349865"/>
+            <a:gd name="connsiteX110" fmla="*/ 722229 w 14166086"/>
+            <a:gd name="connsiteY110" fmla="*/ 2462893 h 3349865"/>
+            <a:gd name="connsiteX111" fmla="*/ 218764 w 14166086"/>
+            <a:gd name="connsiteY111" fmla="*/ 2435678 h 3349865"/>
+            <a:gd name="connsiteX112" fmla="*/ 150729 w 14166086"/>
+            <a:gd name="connsiteY112" fmla="*/ 2326821 h 3349865"/>
+            <a:gd name="connsiteX113" fmla="*/ 137122 w 14166086"/>
+            <a:gd name="connsiteY113" fmla="*/ 2286000 h 3349865"/>
+            <a:gd name="connsiteX114" fmla="*/ 150729 w 14166086"/>
+            <a:gd name="connsiteY114" fmla="*/ 2081893 h 3349865"/>
+            <a:gd name="connsiteX115" fmla="*/ 164336 w 14166086"/>
+            <a:gd name="connsiteY115" fmla="*/ 2041071 h 3349865"/>
+            <a:gd name="connsiteX116" fmla="*/ 177943 w 14166086"/>
+            <a:gd name="connsiteY116" fmla="*/ 1986643 h 3349865"/>
+            <a:gd name="connsiteX117" fmla="*/ 164336 w 14166086"/>
+            <a:gd name="connsiteY117" fmla="*/ 1673678 h 3349865"/>
+            <a:gd name="connsiteX118" fmla="*/ 137122 w 14166086"/>
+            <a:gd name="connsiteY118" fmla="*/ 1578428 h 3349865"/>
+            <a:gd name="connsiteX119" fmla="*/ 123514 w 14166086"/>
+            <a:gd name="connsiteY119" fmla="*/ 1524000 h 3349865"/>
+            <a:gd name="connsiteX120" fmla="*/ 82693 w 14166086"/>
+            <a:gd name="connsiteY120" fmla="*/ 1238250 h 3349865"/>
+            <a:gd name="connsiteX121" fmla="*/ 55479 w 14166086"/>
+            <a:gd name="connsiteY121" fmla="*/ 884464 h 3349865"/>
+            <a:gd name="connsiteX122" fmla="*/ 14657 w 14166086"/>
+            <a:gd name="connsiteY122" fmla="*/ 789214 h 3349865"/>
+            <a:gd name="connsiteX123" fmla="*/ 14657 w 14166086"/>
+            <a:gd name="connsiteY123" fmla="*/ 612321 h 3349865"/>
+            <a:gd name="connsiteX124" fmla="*/ 55479 w 14166086"/>
+            <a:gd name="connsiteY124" fmla="*/ 585107 h 3349865"/>
+            <a:gd name="connsiteX125" fmla="*/ 205157 w 14166086"/>
+            <a:gd name="connsiteY125" fmla="*/ 598714 h 3349865"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX73" y="connsiteY73"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX74" y="connsiteY74"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX75" y="connsiteY75"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX76" y="connsiteY76"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX77" y="connsiteY77"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX78" y="connsiteY78"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX79" y="connsiteY79"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX80" y="connsiteY80"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX81" y="connsiteY81"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX82" y="connsiteY82"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX83" y="connsiteY83"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX84" y="connsiteY84"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX85" y="connsiteY85"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX86" y="connsiteY86"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX87" y="connsiteY87"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX88" y="connsiteY88"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX89" y="connsiteY89"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX90" y="connsiteY90"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX91" y="connsiteY91"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX92" y="connsiteY92"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX93" y="connsiteY93"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX94" y="connsiteY94"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX95" y="connsiteY95"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX96" y="connsiteY96"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX97" y="connsiteY97"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX98" y="connsiteY98"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX99" y="connsiteY99"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX100" y="connsiteY100"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX101" y="connsiteY101"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX102" y="connsiteY102"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX103" y="connsiteY103"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX104" y="connsiteY104"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX105" y="connsiteY105"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX106" y="connsiteY106"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX107" y="connsiteY107"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX108" y="connsiteY108"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX109" y="connsiteY109"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX110" y="connsiteY110"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX111" y="connsiteY111"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX112" y="connsiteY112"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX113" y="connsiteY113"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX114" y="connsiteY114"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX115" y="connsiteY115"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX116" y="connsiteY116"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX117" y="connsiteY117"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX118" y="connsiteY118"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX119" y="connsiteY119"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX120" y="connsiteY120"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX121" y="connsiteY121"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX122" y="connsiteY122"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX123" y="connsiteY123"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX124" y="connsiteY124"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX125" y="connsiteY125"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="14166086" h="3349865">
+              <a:moveTo>
+                <a:pt x="14166086" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="14143407" y="13607"/>
+                <a:pt x="14120477" y="26804"/>
+                <a:pt x="14098050" y="40821"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14084182" y="49489"/>
+                <a:pt x="14072260" y="61594"/>
+                <a:pt x="14057229" y="68036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14031396" y="79108"/>
+                <a:pt x="13939573" y="92181"/>
+                <a:pt x="13921157" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13903014" y="104321"/>
+                <a:pt x="13882956" y="110294"/>
+                <a:pt x="13866729" y="122464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13846203" y="137859"/>
+                <a:pt x="13812300" y="176893"/>
+                <a:pt x="13812300" y="176893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13803229" y="204107"/>
+                <a:pt x="13781528" y="230071"/>
+                <a:pt x="13785086" y="258536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13789622" y="294822"/>
+                <a:pt x="13793133" y="331250"/>
+                <a:pt x="13798693" y="367393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13802210" y="390252"/>
+                <a:pt x="13808498" y="412615"/>
+                <a:pt x="13812300" y="435428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13817573" y="467064"/>
+                <a:pt x="13821371" y="498928"/>
+                <a:pt x="13825907" y="530678"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13821371" y="675821"/>
+                <a:pt x="13820355" y="821117"/>
+                <a:pt x="13812300" y="966107"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13811263" y="984780"/>
+                <a:pt x="13802361" y="1002198"/>
+                <a:pt x="13798693" y="1020536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13793282" y="1047590"/>
+                <a:pt x="13789622" y="1074964"/>
+                <a:pt x="13785086" y="1102178"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13801716" y="1201962"/>
+                <a:pt x="13801197" y="1189707"/>
+                <a:pt x="13812300" y="1306286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13817478" y="1360657"/>
+                <a:pt x="13818689" y="1415433"/>
+                <a:pt x="13825907" y="1469571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13827803" y="1483789"/>
+                <a:pt x="13836402" y="1496391"/>
+                <a:pt x="13839514" y="1510393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13871444" y="1654076"/>
+                <a:pt x="13836098" y="1540964"/>
+                <a:pt x="13866729" y="1632857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13887807" y="1885793"/>
+                <a:pt x="13910237" y="2068480"/>
+                <a:pt x="13853122" y="2354036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13848586" y="2376714"/>
+                <a:pt x="13845599" y="2399758"/>
+                <a:pt x="13839514" y="2422071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13831966" y="2449747"/>
+                <a:pt x="13821371" y="2476500"/>
+                <a:pt x="13812300" y="2503714"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="13798693" y="2544536"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="13794157" y="2558143"/>
+                <a:pt x="13793042" y="2573423"/>
+                <a:pt x="13785086" y="2585357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13732789" y="2663803"/>
+                <a:pt x="13778065" y="2588131"/>
+                <a:pt x="13744264" y="2667000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13736274" y="2685644"/>
+                <a:pt x="13725288" y="2702892"/>
+                <a:pt x="13717050" y="2721428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13707130" y="2743748"/>
+                <a:pt x="13701698" y="2768112"/>
+                <a:pt x="13689836" y="2789464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13678822" y="2809289"/>
+                <a:pt x="13662196" y="2825439"/>
+                <a:pt x="13649014" y="2843893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13639509" y="2857200"/>
+                <a:pt x="13633364" y="2873150"/>
+                <a:pt x="13621800" y="2884714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13610236" y="2896278"/>
+                <a:pt x="13593749" y="2901712"/>
+                <a:pt x="13580979" y="2911928"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13570961" y="2919942"/>
+                <a:pt x="13564439" y="2932027"/>
+                <a:pt x="13553764" y="2939143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13536887" y="2950395"/>
+                <a:pt x="13517980" y="2958367"/>
+                <a:pt x="13499336" y="2966357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13454435" y="2985601"/>
+                <a:pt x="13363264" y="3020786"/>
+                <a:pt x="13363264" y="3020786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13295228" y="3016250"/>
+                <a:pt x="13227087" y="3013085"/>
+                <a:pt x="13159157" y="3007178"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13087942" y="3000985"/>
+                <a:pt x="13037316" y="2991407"/>
+                <a:pt x="12968657" y="2979964"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12949406" y="2973547"/>
+                <a:pt x="12890494" y="2952750"/>
+                <a:pt x="12873407" y="2952750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12791638" y="2952750"/>
+                <a:pt x="12710066" y="2960918"/>
+                <a:pt x="12628479" y="2966357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12469495" y="2976956"/>
+                <a:pt x="12503005" y="2973662"/>
+                <a:pt x="12383550" y="2993571"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12265687" y="3040717"/>
+                <a:pt x="12363517" y="3008250"/>
+                <a:pt x="12206657" y="3034393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12188210" y="3037467"/>
+                <a:pt x="12170515" y="3044082"/>
+                <a:pt x="12152229" y="3048000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="12107000" y="3057692"/>
+                <a:pt x="12061514" y="3066143"/>
+                <a:pt x="12016157" y="3075214"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="11948122" y="3088821"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="11925443" y="3093357"/>
+                <a:pt x="11902027" y="3095114"/>
+                <a:pt x="11880086" y="3102428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11786781" y="3133531"/>
+                <a:pt x="11902576" y="3096807"/>
+                <a:pt x="11771229" y="3129643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11757314" y="3133122"/>
+                <a:pt x="11744198" y="3139310"/>
+                <a:pt x="11730407" y="3143250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11712425" y="3148388"/>
+                <a:pt x="11693891" y="3151483"/>
+                <a:pt x="11675979" y="3156857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11648502" y="3165100"/>
+                <a:pt x="11622734" y="3180014"/>
+                <a:pt x="11594336" y="3184071"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="11499086" y="3197678"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="11318594" y="3287926"/>
+                <a:pt x="11543968" y="3178444"/>
+                <a:pt x="11403836" y="3238500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11385192" y="3246490"/>
+                <a:pt x="11368400" y="3258592"/>
+                <a:pt x="11349407" y="3265714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11331897" y="3272280"/>
+                <a:pt x="11312961" y="3274183"/>
+                <a:pt x="11294979" y="3279321"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11201185" y="3306119"/>
+                <a:pt x="11319853" y="3281978"/>
+                <a:pt x="11172514" y="3306536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11154371" y="3315607"/>
+                <a:pt x="11137764" y="3328830"/>
+                <a:pt x="11118086" y="3333750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10973326" y="3369940"/>
+                <a:pt x="10551368" y="3333891"/>
+                <a:pt x="10546586" y="3333750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10523907" y="3324679"/>
+                <a:pt x="10502115" y="3312963"/>
+                <a:pt x="10478550" y="3306536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10404748" y="3286408"/>
+                <a:pt x="10405854" y="3301955"/>
+                <a:pt x="10342479" y="3279321"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10296474" y="3262891"/>
+                <a:pt x="10251764" y="3243036"/>
+                <a:pt x="10206407" y="3224893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10183729" y="3215822"/>
+                <a:pt x="10161544" y="3205402"/>
+                <a:pt x="10138372" y="3197678"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10079809" y="3178157"/>
+                <a:pt x="10111465" y="3187550"/>
+                <a:pt x="10043122" y="3170464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10034050" y="3161393"/>
+                <a:pt x="10026908" y="3149850"/>
+                <a:pt x="10015907" y="3143250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9994986" y="3130697"/>
+                <a:pt x="9921684" y="3118963"/>
+                <a:pt x="9907050" y="3116036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9761396" y="3057773"/>
+                <a:pt x="9921844" y="3116332"/>
+                <a:pt x="9757372" y="3075214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9729542" y="3068257"/>
+                <a:pt x="9703858" y="3053626"/>
+                <a:pt x="9675729" y="3048000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9630372" y="3038929"/>
+                <a:pt x="9583539" y="3035414"/>
+                <a:pt x="9539657" y="3020786"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9526050" y="3016250"/>
+                <a:pt x="9513053" y="3009074"/>
+                <a:pt x="9498836" y="3007178"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9373934" y="2990524"/>
+                <a:pt x="9096965" y="2983874"/>
+                <a:pt x="9008979" y="2979964"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="8723229" y="2966357"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="8705086" y="2961821"/>
+                <a:pt x="8687056" y="2956807"/>
+                <a:pt x="8668800" y="2952750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8646223" y="2947733"/>
+                <a:pt x="8623299" y="2944344"/>
+                <a:pt x="8600764" y="2939143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8564319" y="2930733"/>
+                <a:pt x="8527390" y="2923756"/>
+                <a:pt x="8491907" y="2911928"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8478300" y="2907392"/>
+                <a:pt x="8465001" y="2901800"/>
+                <a:pt x="8451086" y="2898321"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8428649" y="2892712"/>
+                <a:pt x="8405487" y="2890323"/>
+                <a:pt x="8383050" y="2884714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8315474" y="2867820"/>
+                <a:pt x="8365681" y="2873098"/>
+                <a:pt x="8287800" y="2843893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8270290" y="2837327"/>
+                <a:pt x="8251515" y="2834822"/>
+                <a:pt x="8233372" y="2830286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8081842" y="2754519"/>
+                <a:pt x="8272723" y="2845042"/>
+                <a:pt x="8124514" y="2789464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8105521" y="2782342"/>
+                <a:pt x="8089655" y="2767587"/>
+                <a:pt x="8070086" y="2762250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8039144" y="2753811"/>
+                <a:pt x="8006586" y="2753179"/>
+                <a:pt x="7974836" y="2748643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7947622" y="2739571"/>
+                <a:pt x="7921023" y="2728386"/>
+                <a:pt x="7893193" y="2721428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7701602" y="2673530"/>
+                <a:pt x="7887527" y="2733147"/>
+                <a:pt x="7770729" y="2694214"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="7321693" y="2721428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="7289752" y="2724332"/>
+                <a:pt x="7258193" y="2730500"/>
+                <a:pt x="7226443" y="2735036"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7212836" y="2739572"/>
+                <a:pt x="7199623" y="2745532"/>
+                <a:pt x="7185622" y="2748643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7158689" y="2754628"/>
+                <a:pt x="7130405" y="2754322"/>
+                <a:pt x="7103979" y="2762250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7084550" y="2768079"/>
+                <a:pt x="7068543" y="2782342"/>
+                <a:pt x="7049550" y="2789464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7032040" y="2796030"/>
+                <a:pt x="7013265" y="2798535"/>
+                <a:pt x="6995122" y="2803071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6981515" y="2812143"/>
+                <a:pt x="6968927" y="2822972"/>
+                <a:pt x="6954300" y="2830286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6921271" y="2846801"/>
+                <a:pt x="6879600" y="2848185"/>
+                <a:pt x="6845443" y="2857500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6817767" y="2865048"/>
+                <a:pt x="6791803" y="2878491"/>
+                <a:pt x="6763800" y="2884714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6462439" y="2951682"/>
+                <a:pt x="6137704" y="2920193"/>
+                <a:pt x="5838514" y="2925536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5745829" y="2934804"/>
+                <a:pt x="5581533" y="2952750"/>
+                <a:pt x="5498336" y="2952750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5484651" y="2952750"/>
+                <a:pt x="5233466" y="2927993"/>
+                <a:pt x="5212586" y="2925536"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5180733" y="2921789"/>
+                <a:pt x="5149226" y="2915345"/>
+                <a:pt x="5117336" y="2911928"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5022200" y="2901735"/>
+                <a:pt x="4831586" y="2884714"/>
+                <a:pt x="4831586" y="2884714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4744935" y="2863052"/>
+                <a:pt x="4735152" y="2857500"/>
+                <a:pt x="4613872" y="2857500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4300875" y="2857500"/>
+                <a:pt x="3987943" y="2866571"/>
+                <a:pt x="3674979" y="2871107"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3516229" y="2866571"/>
+                <a:pt x="3357544" y="2857500"/>
+                <a:pt x="3198729" y="2857500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3085245" y="2857500"/>
+                <a:pt x="2972034" y="2871107"/>
+                <a:pt x="2858550" y="2871107"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2704269" y="2871107"/>
+                <a:pt x="2550121" y="2862036"/>
+                <a:pt x="2395907" y="2857500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2359621" y="2852964"/>
+                <a:pt x="2322329" y="2853515"/>
+                <a:pt x="2287050" y="2843893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2271272" y="2839590"/>
+                <a:pt x="2261541" y="2822420"/>
+                <a:pt x="2246229" y="2816678"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2231016" y="2810973"/>
+                <a:pt x="2105719" y="2790992"/>
+                <a:pt x="2096550" y="2789464"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2014907" y="2762250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2001300" y="2757714"/>
+                <a:pt x="1988001" y="2752122"/>
+                <a:pt x="1974086" y="2748643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1803931" y="2706105"/>
+                <a:pt x="2015483" y="2760471"/>
+                <a:pt x="1878836" y="2721428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1759209" y="2687248"/>
+                <a:pt x="1881480" y="2726845"/>
+                <a:pt x="1783586" y="2694214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1620300" y="2698750"/>
+                <a:pt x="1457078" y="2707821"/>
+                <a:pt x="1293729" y="2707821"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1260366" y="2707821"/>
+                <a:pt x="1193622" y="2689598"/>
+                <a:pt x="1157657" y="2680607"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1144050" y="2671536"/>
+                <a:pt x="1131463" y="2660707"/>
+                <a:pt x="1116836" y="2653393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1069695" y="2629822"/>
+                <a:pt x="1037655" y="2627819"/>
+                <a:pt x="994372" y="2598964"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="919660" y="2549156"/>
+                <a:pt x="1021091" y="2589728"/>
+                <a:pt x="926336" y="2558143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="809349" y="2480150"/>
+                <a:pt x="957362" y="2573655"/>
+                <a:pt x="844693" y="2517321"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="830066" y="2510007"/>
+                <a:pt x="818816" y="2496749"/>
+                <a:pt x="803872" y="2490107"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="777658" y="2478456"/>
+                <a:pt x="750059" y="2469850"/>
+                <a:pt x="722229" y="2462893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="522524" y="2412968"/>
+                <a:pt x="686493" y="2449852"/>
+                <a:pt x="218764" y="2435678"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="154074" y="2392552"/>
+                <a:pt x="183115" y="2423978"/>
+                <a:pt x="150729" y="2326821"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="137122" y="2286000"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="141658" y="2217964"/>
+                <a:pt x="143199" y="2149663"/>
+                <a:pt x="150729" y="2081893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="152313" y="2067637"/>
+                <a:pt x="160396" y="2054862"/>
+                <a:pt x="164336" y="2041071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="169474" y="2023089"/>
+                <a:pt x="173407" y="2004786"/>
+                <a:pt x="177943" y="1986643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173407" y="1882321"/>
+                <a:pt x="172050" y="1777813"/>
+                <a:pt x="164336" y="1673678"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="162209" y="1644969"/>
+                <a:pt x="145169" y="1606592"/>
+                <a:pt x="137122" y="1578428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="131984" y="1560446"/>
+                <a:pt x="128050" y="1542143"/>
+                <a:pt x="123514" y="1524000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="93431" y="1283337"/>
+                <a:pt x="110643" y="1378002"/>
+                <a:pt x="82693" y="1238250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72743" y="1049191"/>
+                <a:pt x="79305" y="1027420"/>
+                <a:pt x="55479" y="884464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="42581" y="807072"/>
+                <a:pt x="56437" y="830993"/>
+                <a:pt x="14657" y="789214"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13476" y="777402"/>
+                <a:pt x="-17723" y="652796"/>
+                <a:pt x="14657" y="612321"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24873" y="599551"/>
+                <a:pt x="41872" y="594178"/>
+                <a:pt x="55479" y="585107"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="177838" y="600402"/>
+                <a:pt x="127768" y="598714"/>
+                <a:pt x="205157" y="598714"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500673</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>512884</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0A4C91-1433-4244-94FC-EA850DF745A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1221154" y="2833077"/>
+          <a:ext cx="12211" cy="573942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1025769</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>696057</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEDF133-CBF8-4853-A580-9F411ABF9DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1746250" y="2869712"/>
+          <a:ext cx="2320192" cy="586153"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4807,68 +7371,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D224C6BA-3041-4FF2-9ED2-49CADB590F58}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E26"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="B58" sqref="B58:E61"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="1">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>30</v>
@@ -4876,12 +7440,12 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12">
         <v>30</v>
@@ -4889,36 +7453,36 @@
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="9">
         <v>30</v>
@@ -4926,12 +7490,12 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="20">
         <v>30</v>
@@ -4939,795 +7503,838 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="51">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="20">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51">
+        <v>4</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20">
+        <v>45</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51">
+        <v>5</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20">
         <v>10</v>
       </c>
-      <c r="D12" s="20">
-        <v>45</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
-        <v>4</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="4" t="s">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="89">
+        <v>6</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="20">
-        <v>30</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
-        <v>5</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="20">
-        <v>45</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
-        <v>6</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="20">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="28">
+        <v>26</v>
+      </c>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64">
+      <c r="A23" s="91"/>
+      <c r="B23" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="36">
+        <v>26</v>
+      </c>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51">
         <v>7</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B24" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="44"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="38">
-        <v>26</v>
-      </c>
-      <c r="E25" s="39"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="36">
+        <v>8</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="51">
+        <v>8</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="31">
+        <v>8</v>
+      </c>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51">
+        <v>9</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="31">
+        <v>8</v>
+      </c>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48">
         <v>10</v>
       </c>
-      <c r="D26" s="49">
-        <v>26</v>
-      </c>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
+      <c r="B33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="51" t="s">
+      <c r="D36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48">
+        <v>11</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="49"/>
+      <c r="B42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="44"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="48" t="s">
+      <c r="D43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="49">
-        <v>8</v>
-      </c>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32">
-        <v>9</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="41">
-        <v>8</v>
-      </c>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="62">
-        <v>10</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="7" t="s">
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48">
+        <v>12</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="49"/>
+      <c r="B46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="C47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="49"/>
+      <c r="B48" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="62">
-        <v>11</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62">
-        <v>12</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="C48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="21"/>
+      <c r="C49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="49"/>
+      <c r="B51" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="49"/>
+      <c r="B52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="49"/>
+      <c r="B53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="50"/>
+      <c r="B54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="48">
+        <v>13</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="49"/>
+      <c r="B56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="49"/>
+      <c r="B57" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
-      <c r="B51" s="18" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="49"/>
+      <c r="B58" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="62">
-        <v>13</v>
-      </c>
-      <c r="B52" s="29" t="s">
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="B59" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="7" t="s">
+      <c r="C59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="80"/>
+      <c r="B61" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="81"/>
+      <c r="B62" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="22"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="18" t="s">
+      <c r="C62" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="75"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="87"/>
+      <c r="B63" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="78">
+        <v>45</v>
+      </c>
+      <c r="E63" s="79"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="80"/>
+      <c r="B65" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="81"/>
+      <c r="B66" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="82"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="81"/>
+      <c r="B67" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="87"/>
+      <c r="B68" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="20">
-        <v>1</v>
-      </c>
-      <c r="E57" s="23"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="62">
-        <v>14</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="63"/>
-      <c r="B61" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="62">
-        <v>15</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="22"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="22"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="7" t="s">
+      <c r="E68" s="88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="80"/>
+      <c r="B70" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="71"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
+      <c r="B71" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
-      <c r="B68" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="12">
-        <v>1</v>
-      </c>
-      <c r="E68" s="24"/>
+      <c r="E71" s="82"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="81"/>
+      <c r="B72" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="87"/>
+      <c r="B73" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="88" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A6:A9"/>
+  <mergeCells count="33">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5736,37 +8343,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97035F8F-4CA6-41CD-B35D-614D8FDC778B}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="1.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="G1" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="L1" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -5775,223 +8393,266 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="1">
+        <v>98</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="S8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="G13" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="L13" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -6000,44 +8661,62 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6045,16 +8724,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6062,29 +8741,39 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="G20" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6092,10 +8781,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6103,10 +8798,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6114,10 +8815,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6125,10 +8832,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6136,10 +8849,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6147,10 +8866,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6158,10 +8883,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6169,10 +8900,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6180,10 +8917,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6191,10 +8928,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -6202,10 +8939,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6213,10 +8950,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6224,10 +8961,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6235,10 +8972,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6246,10 +8983,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,10 +8994,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6268,10 +9005,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6279,16 +9016,22 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6298,10 +9041,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99330B9-CAFA-4822-8F10-146FD06622F1}">
   <dimension ref="B1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="V39" sqref="V38:V39"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6322,7 +9065,7 @@
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.140625" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" customWidth="1"/>
     <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -6335,101 +9078,101 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="J2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="N2" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-      <c r="R2" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="47"/>
-      <c r="V2" s="45" t="s">
+      <c r="B2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="F2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="J2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="N2" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="R2" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="47"/>
-      <c r="AG2" s="60"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="V2" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="59"/>
+      <c r="X2" s="60"/>
+      <c r="AG2" s="46"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S3" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="W3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="26"/>
     </row>
     <row r="4" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>30</v>
@@ -6438,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
         <v>30</v>
@@ -6447,46 +9190,46 @@
         <v>0</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
         <v>30</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P4" s="12">
         <v>10</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="59">
+        <v>116</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
+      <c r="T4" s="45">
+        <v>8</v>
+      </c>
       <c r="V4" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="58">
+        <v>8</v>
+      </c>
+      <c r="X4" s="44">
         <v>26</v>
       </c>
-      <c r="AG4" s="36"/>
+      <c r="AG4" s="26"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12">
         <v>30</v>
@@ -6495,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="12">
         <v>30</v>
@@ -6504,203 +9247,207 @@
         <v>1</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5" s="12">
         <v>30</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="W5" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="59">
+        <v>113</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="45">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="37"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="27"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="27"/>
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="J10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="N10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="R10" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47"/>
+      <c r="B10" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="F10" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="J10" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="N10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="R10" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="S11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="57" t="s">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="S11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="K12" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="S12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="59">
+        <v>138</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6708,237 +9455,261 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L15" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="J17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="45">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="J16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J19" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-    </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="N20" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N21" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N22" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P22" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="F33" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="71"/>
+      <c r="J33" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="70"/>
+      <c r="L33" s="71"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="F33" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="J33" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="10" t="s">
+      <c r="K35" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="94">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:L10"/>
+  <mergeCells count="16">
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
@@ -6946,10 +9717,18 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="J33:L33"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables&Relations.xlsx
+++ b/Tables&Relations.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\ghrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66D7F5-0E73-4445-8616-6BBE4C9B7A26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454DB82-AA39-463A-B36C-E213CDB77E7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="10815" xr2:uid="{3B4F8D4A-0A65-49CC-B96E-D6B282C6634A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Relations" sheetId="2" r:id="rId1"/>
@@ -1188,67 +1187,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,12 +1210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1286,10 +1221,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,15 +1297,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7373,11 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D224C6BA-3041-4FF2-9ED2-49CADB590F58}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="1">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7393,28 +7389,28 @@
       <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47">
+      <c r="A2" s="82">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="4" t="s">
         <v>117</v>
       </c>
@@ -7427,7 +7423,7 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7440,7 +7436,7 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -7453,18 +7449,18 @@
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+      <c r="A6" s="89">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
@@ -7477,7 +7473,7 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7490,7 +7486,7 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
@@ -7503,18 +7499,18 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+      <c r="A10" s="89">
         <v>3</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="4" t="s">
         <v>120</v>
       </c>
@@ -7527,7 +7523,7 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
@@ -7540,7 +7536,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
@@ -7553,18 +7549,18 @@
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="A14" s="89">
         <v>4</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="4" t="s">
         <v>121</v>
       </c>
@@ -7577,7 +7573,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
@@ -7590,18 +7586,18 @@
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+      <c r="A17" s="89">
         <v>5</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
@@ -7614,7 +7610,7 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
@@ -7627,18 +7623,18 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89">
+      <c r="A20" s="86">
         <v>6</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
@@ -7651,7 +7647,7 @@
       <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7664,7 +7660,7 @@
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="18" t="s">
         <v>113</v>
       </c>
@@ -7677,18 +7673,18 @@
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51">
+      <c r="A24" s="89">
         <v>7</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="4" t="s">
         <v>137</v>
       </c>
@@ -7701,7 +7697,7 @@
       <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="18" t="s">
         <v>116</v>
       </c>
@@ -7714,18 +7710,18 @@
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
+      <c r="A27" s="89">
         <v>8</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="39" t="s">
         <v>136</v>
       </c>
@@ -7738,7 +7734,7 @@
       <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="40" t="s">
         <v>138</v>
       </c>
@@ -7751,18 +7747,18 @@
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51">
+      <c r="A30" s="89">
         <v>9</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="39" t="s">
         <v>143</v>
       </c>
@@ -7775,7 +7771,7 @@
       <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="40" t="s">
         <v>144</v>
       </c>
@@ -7788,18 +7784,18 @@
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48">
+      <c r="A33" s="70">
         <v>10</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -7812,7 +7808,7 @@
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="4" t="s">
         <v>117</v>
       </c>
@@ -7827,7 +7823,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="7" t="s">
         <v>137</v>
       </c>
@@ -7842,7 +7838,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="7" t="s">
         <v>136</v>
       </c>
@@ -7857,9 +7853,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="18" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>10</v>
@@ -7872,18 +7868,18 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48">
+      <c r="A39" s="70">
         <v>11</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="4" t="s">
         <v>135</v>
       </c>
@@ -7896,7 +7892,7 @@
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="4" t="s">
         <v>118</v>
       </c>
@@ -7911,7 +7907,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="7" t="s">
         <v>137</v>
       </c>
@@ -7926,7 +7922,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="7" t="s">
         <v>136</v>
       </c>
@@ -7941,7 +7937,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="18" t="s">
         <v>175</v>
       </c>
@@ -7954,18 +7950,18 @@
       <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48">
+      <c r="A45" s="70">
         <v>12</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
@@ -7978,7 +7974,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="7" t="s">
         <v>120</v>
       </c>
@@ -7993,7 +7989,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="7" t="s">
         <v>132</v>
       </c>
@@ -8008,7 +8004,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="4" t="s">
         <v>135</v>
       </c>
@@ -8023,7 +8019,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="7" t="s">
         <v>121</v>
       </c>
@@ -8038,7 +8034,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="7" t="s">
         <v>137</v>
       </c>
@@ -8053,7 +8049,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
@@ -8068,7 +8064,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="7" t="s">
         <v>122</v>
       </c>
@@ -8083,7 +8079,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="18" t="s">
         <v>20</v>
       </c>
@@ -8094,18 +8090,18 @@
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48">
+      <c r="A55" s="70">
         <v>13</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="4" t="s">
         <v>128</v>
       </c>
@@ -8118,7 +8114,7 @@
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="7" t="s">
         <v>124</v>
       </c>
@@ -8133,7 +8129,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="7" t="s">
         <v>122</v>
       </c>
@@ -8148,7 +8144,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="18" t="s">
         <v>19</v>
       </c>
@@ -8160,154 +8156,161 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="80"/>
-      <c r="B61" s="69" t="s">
+      <c r="A61" s="83"/>
+      <c r="B61" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="80"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="72" t="s">
+      <c r="A62" s="84"/>
+      <c r="B62" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="73" t="s">
+      <c r="C62" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="75"/>
+      <c r="E62" s="53"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="87"/>
-      <c r="B63" s="76" t="s">
+      <c r="A63" s="85"/>
+      <c r="B63" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="78">
+      <c r="D63" s="56">
         <v>45</v>
       </c>
-      <c r="E63" s="79"/>
+      <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="80"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="83"/>
+      <c r="B65" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="72" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="82"/>
+      <c r="E66" s="58"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="83" t="s">
+      <c r="A67" s="84"/>
+      <c r="B67" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="86" t="s">
+      <c r="E67" s="62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="87"/>
-      <c r="B68" s="76" t="s">
+      <c r="A68" s="85"/>
+      <c r="B68" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="78" t="s">
+      <c r="D68" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="88" t="s">
+      <c r="E68" s="63" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="80"/>
-      <c r="B70" s="69" t="s">
+      <c r="A70" s="83"/>
+      <c r="B70" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="71"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="80"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="81"/>
-      <c r="B71" s="72" t="s">
+      <c r="A71" s="84"/>
+      <c r="B71" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="82"/>
+      <c r="E71" s="58"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="81"/>
-      <c r="B72" s="83" t="s">
+      <c r="A72" s="84"/>
+      <c r="B72" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="84" t="s">
+      <c r="C72" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="86" t="s">
+      <c r="E72" s="62" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
-      <c r="B73" s="76" t="s">
+      <c r="A73" s="85"/>
+      <c r="B73" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="78" t="s">
+      <c r="D73" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="63" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
@@ -8322,19 +8325,12 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8347,9 +8343,6 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8364,19 +8357,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="G1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="H1" s="91"/>
+      <c r="L1" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="91"/>
       <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8636,19 +8629,19 @@
     </row>
     <row r="12" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="G13" s="62" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="G13" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="L13" s="62" t="s">
+      <c r="H13" s="91"/>
+      <c r="L13" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="62"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -8749,15 +8742,15 @@
     </row>
     <row r="19" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="G20" s="62" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="G20" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="62"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -9044,7 +9037,6 @@
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="V39" sqref="V38:V39"/>
     </sheetView>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9078,36 +9070,36 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="F2" s="55" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="J2" s="55" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="J2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
-      <c r="N2" s="55" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="R2" s="58" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="R2" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60"/>
-      <c r="V2" s="58" t="s">
+      <c r="S2" s="68"/>
+      <c r="T2" s="69"/>
+      <c r="V2" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="59"/>
-      <c r="X2" s="60"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="69"/>
       <c r="AG2" s="46"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
@@ -9292,31 +9284,31 @@
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="F10" s="55" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="F10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="J10" s="55" t="s">
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="J10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="N10" s="55" t="s">
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="N10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="R10" s="58" t="s">
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="R10" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="69"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -9527,11 +9519,11 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
       <c r="J17" s="7" t="s">
         <v>136</v>
       </c>
@@ -9543,10 +9535,10 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -9563,7 +9555,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="47" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -9584,11 +9576,11 @@
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N21" s="4" t="s">
@@ -9614,109 +9606,102 @@
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="F33" s="69" t="s">
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="F33" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="71"/>
-      <c r="J33" s="69" t="s">
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="J33" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="73" t="s">
+      <c r="K34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="74" t="s">
+      <c r="L34" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="85" t="s">
+      <c r="H35" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="92" t="s">
+      <c r="J35" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="93" t="s">
+      <c r="K35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="94">
+      <c r="L35" s="66">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="66" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="N10:P10"/>
@@ -9726,6 +9711,13 @@
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tables&Relations.xlsx
+++ b/Tables&Relations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\ghrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454DB82-AA39-463A-B36C-E213CDB77E7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EA2578-30E1-4717-81A4-F90478949946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" firstSheet="1" activeTab="2" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Relations" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="175">
   <si>
     <t>fname</t>
   </si>
@@ -539,9 +539,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Reference Is Available - is_available_val</t>
-  </si>
-  <si>
     <t>Reference Patient - patient_id</t>
   </si>
   <si>
@@ -554,7 +551,7 @@
     <t>Reference Procedure - procedure_id</t>
   </si>
   <si>
-    <t>is_available_val_pid</t>
+    <t>Reference Is Available - is_available_pid</t>
   </si>
 </sst>
 </file>
@@ -595,7 +592,7 @@
       <patternFill patternType="darkGrid"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -952,19 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1081,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1136,7 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,10 +1146,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,51 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,13 +1226,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,6 +1249,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7372,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D224C6BA-3041-4FF2-9ED2-49CADB590F58}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="B45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,31 +7369,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82">
+      <c r="A2" s="66">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="4" t="s">
         <v>117</v>
       </c>
@@ -7423,7 +7406,7 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7436,7 +7419,7 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -7449,18 +7432,18 @@
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89">
+      <c r="A6" s="76">
         <v>2</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
@@ -7473,7 +7456,7 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7486,7 +7469,7 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
@@ -7499,18 +7482,18 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89">
+      <c r="A10" s="76">
         <v>3</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>120</v>
       </c>
@@ -7523,7 +7506,7 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
@@ -7536,7 +7519,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
@@ -7549,18 +7532,18 @@
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89">
+      <c r="A14" s="76">
         <v>4</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>121</v>
       </c>
@@ -7573,7 +7556,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
@@ -7586,18 +7569,18 @@
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="89">
+      <c r="A17" s="76">
         <v>5</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
@@ -7610,7 +7593,7 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
@@ -7623,176 +7606,176 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86">
+      <c r="A20" s="73">
         <v>6</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>26</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <v>26</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89">
+      <c r="A24" s="76">
         <v>7</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <v>8</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89">
+      <c r="A27" s="76">
         <v>8</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>8</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89">
+      <c r="A30" s="76">
         <v>9</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>8</v>
       </c>
-      <c r="E32" s="32"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="70">
         <v>10</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="71"/>
@@ -7864,19 +7847,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="70">
         <v>11</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="71"/>
@@ -7939,26 +7922,28 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="72"/>
       <c r="B44" s="18" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
-      <c r="E44" s="24"/>
+      <c r="D44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="70">
         <v>12</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="71"/>
@@ -7985,7 +7970,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8000,7 +7985,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8015,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8030,7 +8015,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,12 +8078,12 @@
       <c r="A55" s="70">
         <v>13</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="71"/>
@@ -8156,161 +8141,149 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
-      <c r="B61" s="78" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="80"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="68"/>
+      <c r="B62" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="53"/>
+      <c r="E62" s="52"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="85"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="55">
         <v>45</v>
       </c>
-      <c r="E63" s="57"/>
+      <c r="E63" s="56"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
-      <c r="B65" s="78" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="80"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="50" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="58"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="68"/>
+      <c r="B67" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="62" t="s">
+      <c r="E67" s="61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="85"/>
-      <c r="B68" s="54" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="56" t="s">
+      <c r="D68" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="63" t="s">
+      <c r="E68" s="62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="83"/>
-      <c r="B70" s="78" t="s">
+      <c r="A70" s="67"/>
+      <c r="B70" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="80"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="85"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="58"/>
+      <c r="E71" s="57"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
-      <c r="B72" s="59" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="61" t="s">
+      <c r="D72" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="62" t="s">
+      <c r="E72" s="61" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="69"/>
+      <c r="B73" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="62" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
@@ -8326,11 +8299,23 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A45:A54"/>
     <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8357,19 +8342,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="G1" s="91" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="L1" s="91" t="s">
+      <c r="H1" s="90"/>
+      <c r="L1" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="91"/>
+      <c r="M1" s="90"/>
       <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8629,19 +8614,19 @@
     </row>
     <row r="12" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="G13" s="91" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="G13" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="L13" s="91" t="s">
+      <c r="H13" s="90"/>
+      <c r="L13" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="91"/>
+      <c r="M13" s="90"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -8742,15 +8727,15 @@
     </row>
     <row r="19" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="G20" s="91" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="G20" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="91"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -9034,8 +9019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99330B9-CAFA-4822-8F10-146FD06622F1}">
   <dimension ref="B1:AJ36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V39" sqref="V38:V39"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9070,37 +9055,37 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
-      <c r="F2" s="73" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="F2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="J2" s="73" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="J2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
-      <c r="N2" s="73" t="s">
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="N2" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-      <c r="R2" s="81" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="82"/>
+      <c r="R2" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="69"/>
-      <c r="V2" s="81" t="s">
+      <c r="S2" s="87"/>
+      <c r="T2" s="88"/>
+      <c r="V2" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="68"/>
-      <c r="X2" s="69"/>
-      <c r="AG2" s="46"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -9142,10 +9127,10 @@
       <c r="R3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="42" t="s">
         <v>3</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -9154,10 +9139,10 @@
       <c r="W3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="43" t="s">
+      <c r="X3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="26"/>
+      <c r="AG3" s="25"/>
     </row>
     <row r="4" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -9199,10 +9184,10 @@
       <c r="R4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="45">
+      <c r="T4" s="44">
         <v>8</v>
       </c>
       <c r="V4" s="7" t="s">
@@ -9211,10 +9196,10 @@
       <c r="W4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="44">
+      <c r="X4" s="43">
         <v>26</v>
       </c>
-      <c r="AG4" s="26"/>
+      <c r="AG4" s="25"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -9247,68 +9232,68 @@
       <c r="V5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="W5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="44">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="27"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="26"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="27"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26"/>
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="F10" s="73" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="F10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="J10" s="73" t="s">
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="J10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-      <c r="N10" s="73" t="s">
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="N10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
-      <c r="R10" s="81" t="s">
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
+      <c r="R10" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="68"/>
-      <c r="T10" s="69"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -9350,10 +9335,10 @@
       <c r="R11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="S11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9397,10 +9382,10 @@
       <c r="R12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="44">
         <v>8</v>
       </c>
     </row>
@@ -9424,7 +9409,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>7</v>
@@ -9462,7 +9447,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>7</v>
@@ -9519,11 +9504,11 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="J17" s="7" t="s">
         <v>136</v>
       </c>
@@ -9535,13 +9520,13 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="7" t="s">
@@ -9555,13 +9540,13 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="44">
         <v>6</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -9573,14 +9558,14 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="N20" s="73" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="N20" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="74"/>
-      <c r="P20" s="75"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N21" s="4" t="s">
@@ -9606,102 +9591,109 @@
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="F33" s="78" t="s">
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="F33" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="J33" s="78" t="s">
+      <c r="G33" s="84"/>
+      <c r="H33" s="85"/>
+      <c r="J33" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="J35" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="66">
+      <c r="L35" s="65">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="65" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="N10:P10"/>
@@ -9711,13 +9703,6 @@
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tables&Relations.xlsx
+++ b/Tables&Relations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\ghrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EA2578-30E1-4717-81A4-F90478949946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4C01D-6FC7-4026-AF2B-CD5021068236}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" firstSheet="1" activeTab="2" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Relations" sheetId="2" r:id="rId1"/>
@@ -542,16 +542,16 @@
     <t>Reference Patient - patient_id</t>
   </si>
   <si>
-    <t>Reference Nurse Availability - nurse_availability_id</t>
-  </si>
-  <si>
-    <t>Reference Doctor Availability - doctor_availability_id</t>
-  </si>
-  <si>
     <t>Reference Procedure - procedure_id</t>
   </si>
   <si>
     <t>Reference Is Available - is_available_pid</t>
+  </si>
+  <si>
+    <t>Reference Doctor Availability - doctor_id</t>
+  </si>
+  <si>
+    <t>Reference Nurse Availability - nurse_id</t>
   </si>
 </sst>
 </file>
@@ -1214,6 +1214,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,42 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7355,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D224C6BA-3041-4FF2-9ED2-49CADB590F58}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7372,28 +7372,28 @@
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="4" t="s">
         <v>117</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -7432,18 +7432,18 @@
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76">
+      <c r="A6" s="88">
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7469,7 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
@@ -7482,18 +7482,18 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76">
+      <c r="A10" s="88">
         <v>3</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="4" t="s">
         <v>120</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
@@ -7519,7 +7519,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
@@ -7532,18 +7532,18 @@
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76">
+      <c r="A14" s="88">
         <v>4</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="4" t="s">
         <v>121</v>
       </c>
@@ -7556,7 +7556,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
@@ -7569,18 +7569,18 @@
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76">
+      <c r="A17" s="88">
         <v>5</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
@@ -7606,18 +7606,18 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73">
+      <c r="A20" s="85">
         <v>6</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
@@ -7630,7 +7630,7 @@
       <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7643,7 +7643,7 @@
       <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="18" t="s">
         <v>113</v>
       </c>
@@ -7656,18 +7656,18 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76">
+      <c r="A24" s="88">
         <v>7</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="4" t="s">
         <v>137</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="18" t="s">
         <v>116</v>
       </c>
@@ -7693,18 +7693,18 @@
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76">
+      <c r="A27" s="88">
         <v>8</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="38" t="s">
         <v>136</v>
       </c>
@@ -7717,7 +7717,7 @@
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="39" t="s">
         <v>138</v>
       </c>
@@ -7730,18 +7730,18 @@
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76">
+      <c r="A30" s="88">
         <v>9</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="38" t="s">
         <v>143</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="39" t="s">
         <v>144</v>
       </c>
@@ -7767,18 +7767,18 @@
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70">
+      <c r="A33" s="82">
         <v>10</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="4" t="s">
         <v>117</v>
       </c>
@@ -7806,7 +7806,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="7" t="s">
         <v>137</v>
       </c>
@@ -7821,7 +7821,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="7" t="s">
         <v>136</v>
       </c>
@@ -7836,7 +7836,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="72"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="18" t="s">
         <v>143</v>
       </c>
@@ -7847,22 +7847,22 @@
         <v>4</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="70">
+      <c r="A39" s="82">
         <v>11</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="4" t="s">
         <v>135</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="4" t="s">
         <v>118</v>
       </c>
@@ -7890,7 +7890,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="7" t="s">
         <v>137</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="7" t="s">
         <v>136</v>
       </c>
@@ -7920,7 +7920,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="72"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="18" t="s">
         <v>143</v>
       </c>
@@ -7931,22 +7931,22 @@
         <v>29</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="70">
+      <c r="A45" s="82">
         <v>12</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="7" t="s">
         <v>120</v>
       </c>
@@ -7974,9 +7974,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
+      <c r="A48" s="83"/>
       <c r="B48" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>7</v>
@@ -7985,13 +7985,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>7</v>
@@ -8000,11 +8000,11 @@
         <v>4</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="7" t="s">
         <v>121</v>
       </c>
@@ -8015,11 +8015,11 @@
         <v>4</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="7" t="s">
         <v>137</v>
       </c>
@@ -8034,7 +8034,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
@@ -8049,7 +8049,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="7" t="s">
         <v>122</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="72"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="18" t="s">
         <v>20</v>
       </c>
@@ -8075,18 +8075,18 @@
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="70">
+      <c r="A55" s="82">
         <v>13</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="4" t="s">
         <v>128</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="7" t="s">
         <v>124</v>
       </c>
@@ -8114,7 +8114,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="7" t="s">
         <v>122</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="72"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="18" t="s">
         <v>19</v>
       </c>
@@ -8141,16 +8141,16 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="67"/>
-      <c r="B61" s="83" t="s">
+      <c r="A61" s="79"/>
+      <c r="B61" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="85"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="73"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="49" t="s">
         <v>119</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="69"/>
+      <c r="A63" s="81"/>
       <c r="B63" s="53" t="s">
         <v>26</v>
       </c>
@@ -8177,16 +8177,16 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
-      <c r="B65" s="83" t="s">
+      <c r="A65" s="79"/>
+      <c r="B65" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="49" t="s">
         <v>130</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="58" t="s">
         <v>117</v>
       </c>
@@ -8214,7 +8214,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="69"/>
+      <c r="A68" s="81"/>
       <c r="B68" s="53" t="s">
         <v>119</v>
       </c>
@@ -8230,16 +8230,16 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67"/>
-      <c r="B70" s="83" t="s">
+      <c r="A70" s="79"/>
+      <c r="B70" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="85"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="49" t="s">
         <v>133</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="E71" s="57"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="58" t="s">
         <v>118</v>
       </c>
@@ -8267,7 +8267,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="69"/>
+      <c r="A73" s="81"/>
       <c r="B73" s="53" t="s">
         <v>119</v>
       </c>
@@ -8283,6 +8283,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
@@ -8299,23 +8316,6 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9019,7 +9019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99330B9-CAFA-4822-8F10-146FD06622F1}">
   <dimension ref="B1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -9055,36 +9055,36 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="F2" s="80" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="J2" s="80" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="J2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="N2" s="80" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="N2" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
-      <c r="R2" s="86" t="s">
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
+      <c r="R2" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
-      <c r="V2" s="86" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="V2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
       <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
@@ -9269,31 +9269,31 @@
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="F10" s="80" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="J10" s="80" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="J10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-      <c r="N10" s="80" t="s">
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="N10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
-      <c r="R10" s="86" t="s">
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="R10" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="87"/>
-      <c r="T10" s="88"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="76"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -9561,11 +9561,11 @@
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="N20" s="80" t="s">
+      <c r="N20" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N21" s="4" t="s">
@@ -9591,21 +9591,21 @@
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="F33" s="83" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="F33" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
-      <c r="J33" s="83" t="s">
+      <c r="G33" s="72"/>
+      <c r="H33" s="73"/>
+      <c r="J33" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="84"/>
-      <c r="L33" s="85"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
@@ -9687,13 +9687,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="N10:P10"/>
@@ -9703,6 +9696,13 @@
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tables&Relations.xlsx
+++ b/Tables&Relations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgrifit\Desktop\IIT\OnlineTraining\Spring2018\OpenSourceProgramming\FinalProject_DueApr29\ghrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4C01D-6FC7-4026-AF2B-CD5021068236}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F1921D-BFE9-4A47-A48D-81101946E202}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10830" firstSheet="1" activeTab="1" xr2:uid="{F62A5D56-28AC-4B05-9321-33328E52EE30}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Relations" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="176">
   <si>
     <t>fname</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Brett</t>
   </si>
   <si>
-    <t>Malcom</t>
-  </si>
-  <si>
     <t>Winston</t>
   </si>
   <si>
@@ -552,6 +549,12 @@
   </si>
   <si>
     <t>Reference Nurse Availability - nurse_id</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>start_time_id</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,6 +1217,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1222,6 +1235,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,42 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7355,7 +7359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D224C6BA-3041-4FF2-9ED2-49CADB590F58}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -7372,30 +7376,30 @@
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78">
+      <c r="A2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -7406,7 +7410,7 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7419,7 +7423,7 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -7432,20 +7436,20 @@
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88">
+      <c r="A6" s="80">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -7456,7 +7460,7 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7473,7 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
@@ -7482,20 +7486,20 @@
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88">
+      <c r="A10" s="80">
         <v>3</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -7506,7 +7510,7 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
@@ -7519,7 +7523,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
@@ -7532,20 +7536,20 @@
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88">
+      <c r="A14" s="80">
         <v>4</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -7556,7 +7560,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
@@ -7569,20 +7573,20 @@
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88">
+      <c r="A17" s="80">
         <v>5</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -7593,7 +7597,7 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
@@ -7606,20 +7610,20 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85">
+      <c r="A20" s="77">
         <v>6</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
+      <c r="B20" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -7630,9 +7634,9 @@
       <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>8</v>
@@ -7643,9 +7647,9 @@
       <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>8</v>
@@ -7656,20 +7660,20 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88">
+      <c r="A24" s="80">
         <v>7</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
+      <c r="B24" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>7</v>
@@ -7680,9 +7684,9 @@
       <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>8</v>
@@ -7693,20 +7697,20 @@
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88">
+      <c r="A27" s="80">
         <v>8</v>
       </c>
-      <c r="B27" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
+      <c r="B27" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>7</v>
@@ -7717,9 +7721,9 @@
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>8</v>
@@ -7730,20 +7734,20 @@
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88">
+      <c r="A30" s="80">
         <v>9</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="38" t="s">
-        <v>143</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>7</v>
@@ -7754,9 +7758,9 @@
       <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>8</v>
@@ -7767,20 +7771,20 @@
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82">
+      <c r="A33" s="67">
         <v>10</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>7</v>
@@ -7791,9 +7795,9 @@
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
@@ -7802,13 +7806,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>8</v>
@@ -7817,13 +7821,13 @@
         <v>4</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>8</v>
@@ -7832,13 +7836,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>10</v>
@@ -7847,24 +7851,24 @@
         <v>4</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82">
+      <c r="A39" s="67">
         <v>11</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>7</v>
@@ -7875,9 +7879,9 @@
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>7</v>
@@ -7886,13 +7890,13 @@
         <v>4</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>8</v>
@@ -7901,13 +7905,13 @@
         <v>29</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>9</v>
@@ -7916,13 +7920,13 @@
         <v>29</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>10</v>
@@ -7931,24 +7935,24 @@
         <v>29</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="82">
+      <c r="A45" s="67">
         <v>12</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>7</v>
@@ -7959,9 +7963,9 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>7</v>
@@ -7970,13 +7974,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>7</v>
@@ -7985,13 +7989,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>7</v>
@@ -8000,13 +8004,13 @@
         <v>4</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>7</v>
@@ -8015,13 +8019,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>8</v>
@@ -8030,13 +8034,13 @@
         <v>30</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>8</v>
@@ -8045,13 +8049,13 @@
         <v>30</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -8060,11 +8064,11 @@
         <v>4</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="18" t="s">
         <v>20</v>
       </c>
@@ -8075,20 +8079,20 @@
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="82">
+      <c r="A55" s="67">
         <v>13</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="68"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="72"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>7</v>
@@ -8099,9 +8103,9 @@
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>7</v>
@@ -8110,13 +8114,13 @@
         <v>4</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>7</v>
@@ -8125,11 +8129,11 @@
         <v>29</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="84"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="18" t="s">
         <v>19</v>
       </c>
@@ -8141,18 +8145,18 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="79"/>
-      <c r="B61" s="71" t="s">
+      <c r="A61" s="74"/>
+      <c r="B61" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="73"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="86"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="80"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="50" t="s">
         <v>7</v>
@@ -8163,7 +8167,7 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="81"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="53" t="s">
         <v>26</v>
       </c>
@@ -8177,18 +8181,18 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="79"/>
-      <c r="B65" s="71" t="s">
+      <c r="A65" s="74"/>
+      <c r="B65" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="73"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="86"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="50" t="s">
         <v>7</v>
@@ -8199,9 +8203,9 @@
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="59" t="s">
         <v>7</v>
@@ -8210,13 +8214,13 @@
         <v>29</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="54" t="s">
         <v>7</v>
@@ -8225,23 +8229,23 @@
         <v>4</v>
       </c>
       <c r="E68" s="62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="79"/>
-      <c r="B70" s="71" t="s">
+      <c r="A70" s="74"/>
+      <c r="B70" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="73"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="80"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="50" t="s">
         <v>7</v>
@@ -8252,9 +8256,9 @@
       <c r="E71" s="57"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="59" t="s">
         <v>7</v>
@@ -8263,13 +8267,13 @@
         <v>29</v>
       </c>
       <c r="E72" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="54" t="s">
         <v>7</v>
@@ -8278,11 +8282,28 @@
         <v>29</v>
       </c>
       <c r="E73" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="A2:A5"/>
@@ -8299,23 +8320,6 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8326,8 +8330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97035F8F-4CA6-41CD-B35D-614D8FDC778B}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,19 +8346,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="G1" s="90" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="G1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="L1" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="L1" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="91"/>
       <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8362,7 +8366,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -8371,16 +8375,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>34</v>
@@ -8403,19 +8407,19 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -8432,19 +8436,19 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S4" s="1">
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -8455,25 +8459,25 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S5" s="1">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -8481,28 +8485,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S6" s="1">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -8510,28 +8514,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S7" s="1">
         <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -8539,23 +8543,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L8" s="1"/>
       <c r="S8" s="1">
         <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -8563,16 +8567,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -8581,16 +8585,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -8599,38 +8603,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="G13" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="90"/>
-      <c r="L13" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="G13" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="91"/>
+      <c r="L13" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -8639,16 +8643,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -8656,22 +8660,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -8679,22 +8683,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8702,16 +8706,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8719,27 +8723,27 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="G20" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="G20" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -8747,11 +8751,11 @@
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>158</v>
+      <c r="G21" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8759,16 +8763,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8776,16 +8780,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8793,16 +8797,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8810,16 +8814,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8827,16 +8831,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
       <c r="G26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8844,16 +8848,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
       <c r="G27" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -8861,16 +8865,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
       <c r="G28" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8878,16 +8882,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
       <c r="G29" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8895,10 +8899,16 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="s">
-        <v>77</v>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8906,10 +8916,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8917,10 +8927,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8928,10 +8938,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8939,10 +8949,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8950,10 +8960,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8961,10 +8971,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8972,10 +8982,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8983,10 +8993,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8994,10 +9004,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -9055,41 +9065,41 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="F2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="J2" s="66" t="s">
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="J2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-      <c r="N2" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
-      <c r="R2" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="V2" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="N2" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="R2" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
+      <c r="V2" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="88"/>
+      <c r="X2" s="89"/>
       <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -9098,7 +9108,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
@@ -9107,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>7</v>
@@ -9116,7 +9126,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>7</v>
@@ -9125,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S3" s="37" t="s">
         <v>7</v>
@@ -9134,7 +9144,7 @@
         <v>3</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>7</v>
@@ -9182,7 +9192,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>8</v>
@@ -9191,7 +9201,7 @@
         <v>8</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>8</v>
@@ -9230,7 +9240,7 @@
         <v>30</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W5" s="29" t="s">
         <v>8</v>
@@ -9269,35 +9279,35 @@
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="F10" s="66" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="F10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="J10" s="66" t="s">
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="J10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
-      <c r="N10" s="66" t="s">
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+      <c r="N10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="R10" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="76"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
+      <c r="R10" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="88"/>
+      <c r="T10" s="89"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -9306,7 +9316,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>7</v>
@@ -9315,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>7</v>
@@ -9324,7 +9334,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>7</v>
@@ -9333,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S11" s="37" t="s">
         <v>7</v>
@@ -9344,7 +9354,7 @@
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -9353,7 +9363,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>7</v>
@@ -9362,7 +9372,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>7</v>
@@ -9371,7 +9381,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>7</v>
@@ -9380,7 +9390,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S12" s="29" t="s">
         <v>8</v>
@@ -9391,7 +9401,7 @@
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -9400,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>8</v>
@@ -9409,7 +9419,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>7</v>
@@ -9418,7 +9428,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>7</v>
@@ -9447,7 +9457,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>7</v>
@@ -9465,7 +9475,7 @@
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>10</v>
@@ -9474,7 +9484,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>10</v>
@@ -9483,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>7</v>
@@ -9494,7 +9504,7 @@
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>8</v>
@@ -9504,13 +9514,13 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
+      <c r="B17" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>8</v>
@@ -9521,7 +9531,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>7</v>
@@ -9530,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>7</v>
@@ -9541,7 +9551,7 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>8</v>
@@ -9561,15 +9571,15 @@
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="N20" s="66" t="s">
+      <c r="N20" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="72"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>7</v>
@@ -9591,25 +9601,25 @@
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="F33" s="71" t="s">
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="F33" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="72"/>
-      <c r="H33" s="73"/>
-      <c r="J33" s="71" t="s">
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="J33" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="86"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="50" t="s">
         <v>7</v>
@@ -9618,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>7</v>
@@ -9627,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K34" s="50" t="s">
         <v>7</v>
@@ -9638,7 +9648,7 @@
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>7</v>
@@ -9647,7 +9657,7 @@
         <v>29</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="59" t="s">
         <v>7</v>
@@ -9667,7 +9677,7 @@
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>7</v>
@@ -9676,7 +9686,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" s="64" t="s">
         <v>7</v>
@@ -9687,6 +9697,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="N10:P10"/>
@@ -9696,13 +9713,6 @@
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
